--- a/powerbi/powerbi_sample_dataset/complaint.xlsx
+++ b/powerbi/powerbi_sample_dataset/complaint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilnair/Documents/ByteSize Trainings/curriculum/powerbi/powerbi_sample_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F04B2F-57EC-6549-95DA-C10FEF9231C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277D2C1-2994-C848-8546-6F7AC51EC505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4242,9 +4242,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4682,56 +4689,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4770,6 +4778,7 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42" xr:uid="{AD46A335-2CA0-8444-85CA-8C42624B3326}"/>
+    <cellStyle name="Normal 3" xfId="43" xr:uid="{ADBEAFA9-2C49-D24D-AFAD-4CCD9BF2554D}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -5153,7 +5162,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43483</v>
+        <v>44501</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -5179,7 +5188,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44054</v>
+        <v>44708</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -5205,7 +5214,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44631</v>
+        <v>45046</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -5231,7 +5240,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43851</v>
+        <v>44531</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5257,7 +5266,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43896</v>
+        <v>43699</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -5283,7 +5292,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44162</v>
+        <v>44865</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -5309,7 +5318,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44498</v>
+        <v>44344</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5335,7 +5344,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44109</v>
+        <v>43750</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -5361,7 +5370,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44501</v>
+        <v>44551</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -5387,7 +5396,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44692</v>
+        <v>43708</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -5413,7 +5422,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44623</v>
+        <v>43754</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -5439,7 +5448,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44734</v>
+        <v>44653</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -5465,7 +5474,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43678</v>
+        <v>43819</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -5491,7 +5500,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44777</v>
+        <v>43666</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -5517,7 +5526,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44795</v>
+        <v>44129</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -5543,7 +5552,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45147</v>
+        <v>43676</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -5569,7 +5578,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43568</v>
+        <v>45023</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -5595,7 +5604,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44027</v>
+        <v>44190</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -5618,7 +5627,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44137</v>
+        <v>44416</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -5644,7 +5653,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44678</v>
+        <v>44299</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -5670,7 +5679,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44740</v>
+        <v>43557</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -5696,7 +5705,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44550</v>
+        <v>44094</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
@@ -5722,7 +5731,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44743</v>
+        <v>45207</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
@@ -5748,7 +5757,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45166</v>
+        <v>44465</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -5774,7 +5783,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>45174</v>
+        <v>44512</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -5800,7 +5809,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44874</v>
+        <v>44421</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -5826,7 +5835,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43785</v>
+        <v>45036</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -5852,7 +5861,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43644</v>
+        <v>45110</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
@@ -5878,7 +5887,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43663</v>
+        <v>44582</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -5904,7 +5913,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44843</v>
+        <v>45006</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -5930,7 +5939,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44894</v>
+        <v>44249</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -5956,7 +5965,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44252</v>
+        <v>43907</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
@@ -5982,7 +5991,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44583</v>
+        <v>44524</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -6008,7 +6017,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43994</v>
+        <v>44597</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
@@ -6034,7 +6043,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44933</v>
+        <v>44436</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -6057,7 +6066,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44198</v>
+        <v>44793</v>
       </c>
       <c r="B37" t="s">
         <v>68</v>
@@ -6083,7 +6092,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44800</v>
+        <v>43717</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
@@ -6109,7 +6118,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>45108</v>
+        <v>44722</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -6135,7 +6144,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>45031</v>
+        <v>44809</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -6161,7 +6170,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44126</v>
+        <v>44312</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -6187,7 +6196,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44609</v>
+        <v>43534</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -6213,7 +6222,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43708</v>
+        <v>44748</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -6239,7 +6248,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44427</v>
+        <v>44202</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -6265,7 +6274,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44283</v>
+        <v>44026</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -6288,7 +6297,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43752</v>
+        <v>44775</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -6314,7 +6323,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45096</v>
+        <v>43509</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -6340,7 +6349,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44694</v>
+        <v>44959</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
@@ -6366,7 +6375,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43815</v>
+        <v>44138</v>
       </c>
       <c r="B49" t="s">
         <v>68</v>
@@ -6392,7 +6401,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44720</v>
+        <v>43598</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -6418,7 +6427,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44978</v>
+        <v>44691</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -6444,7 +6453,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44619</v>
+        <v>44811</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -6470,7 +6479,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44751</v>
+        <v>43712</v>
       </c>
       <c r="B53" t="s">
         <v>42</v>
@@ -6496,7 +6505,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44299</v>
+        <v>44907</v>
       </c>
       <c r="B54" t="s">
         <v>45</v>
@@ -6522,7 +6531,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44691</v>
+        <v>43836</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -6548,7 +6557,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43766</v>
+        <v>44647</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -6574,7 +6583,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>45097</v>
+        <v>44515</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -6600,7 +6609,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44742</v>
+        <v>45036</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -6626,7 +6635,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>45172</v>
+        <v>44427</v>
       </c>
       <c r="B59" t="s">
         <v>29</v>
@@ -6652,7 +6661,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43612</v>
+        <v>44721</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -6678,7 +6687,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44975</v>
+        <v>44848</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
@@ -6704,7 +6713,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44245</v>
+        <v>43748</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -6730,7 +6739,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>45180</v>
+        <v>44129</v>
       </c>
       <c r="B63" t="s">
         <v>42</v>
@@ -6756,7 +6765,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44743</v>
+        <v>44263</v>
       </c>
       <c r="B64" t="s">
         <v>45</v>
@@ -6782,7 +6791,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44868</v>
+        <v>43743</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -6808,7 +6817,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43890</v>
+        <v>43527</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
@@ -6834,7 +6843,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44810</v>
+        <v>44253</v>
       </c>
       <c r="B67" t="s">
         <v>29</v>
@@ -6860,7 +6869,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43986</v>
+        <v>43574</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -6886,7 +6895,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44759</v>
+        <v>43714</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -6912,7 +6921,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44456</v>
+        <v>45000</v>
       </c>
       <c r="B70" t="s">
         <v>45</v>
@@ -6938,7 +6947,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44188</v>
+        <v>44742</v>
       </c>
       <c r="B71" t="s">
         <v>42</v>
@@ -6964,7 +6973,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43984</v>
+        <v>44411</v>
       </c>
       <c r="B72" t="s">
         <v>42</v>
@@ -6990,7 +6999,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>45180</v>
+        <v>45004</v>
       </c>
       <c r="B73" t="s">
         <v>42</v>
@@ -7016,7 +7025,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44001</v>
+        <v>44988</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -7042,7 +7051,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43932</v>
+        <v>44040</v>
       </c>
       <c r="B75" t="s">
         <v>68</v>
@@ -7068,7 +7077,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43906</v>
+        <v>44959</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
@@ -7094,7 +7103,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44961</v>
+        <v>43942</v>
       </c>
       <c r="B77" t="s">
         <v>29</v>
@@ -7120,7 +7129,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44486</v>
+        <v>43504</v>
       </c>
       <c r="B78" t="s">
         <v>29</v>
@@ -7143,7 +7152,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44199</v>
+        <v>44728</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -7169,7 +7178,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43521</v>
+        <v>44209</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -7195,7 +7204,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43954</v>
+        <v>43473</v>
       </c>
       <c r="B81" t="s">
         <v>39</v>
@@ -7221,7 +7230,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44793</v>
+        <v>44859</v>
       </c>
       <c r="B82" t="s">
         <v>68</v>
@@ -7247,7 +7256,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>44477</v>
+        <v>43819</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -7273,7 +7282,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>44214</v>
+        <v>44602</v>
       </c>
       <c r="B84" t="s">
         <v>68</v>
@@ -7299,7 +7308,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>44198</v>
+        <v>44582</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -7325,7 +7334,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>45180</v>
+        <v>45004</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -7351,7 +7360,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>44877</v>
+        <v>44150</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -7377,7 +7386,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43833</v>
+        <v>44359</v>
       </c>
       <c r="B88" t="s">
         <v>45</v>
@@ -7403,7 +7412,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>45155</v>
+        <v>44954</v>
       </c>
       <c r="B89" t="s">
         <v>39</v>
@@ -7429,7 +7438,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43739</v>
+        <v>44138</v>
       </c>
       <c r="B90" t="s">
         <v>42</v>
@@ -7455,7 +7464,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43900</v>
+        <v>44252</v>
       </c>
       <c r="B91" t="s">
         <v>29</v>
@@ -7481,7 +7490,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>45158</v>
+        <v>43987</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -7507,7 +7516,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>44666</v>
+        <v>45117</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
@@ -7533,7 +7542,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>44685</v>
+        <v>44095</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -7559,7 +7568,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>44017</v>
+        <v>43717</v>
       </c>
       <c r="B95" t="s">
         <v>68</v>
@@ -7585,7 +7594,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>44741</v>
+        <v>44941</v>
       </c>
       <c r="B96" t="s">
         <v>68</v>
@@ -7611,7 +7620,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>44506</v>
+        <v>44186</v>
       </c>
       <c r="B97" t="s">
         <v>42</v>
@@ -7637,7 +7646,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43701</v>
+        <v>44529</v>
       </c>
       <c r="B98" t="s">
         <v>39</v>
@@ -7663,7 +7672,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>44922</v>
+        <v>44559</v>
       </c>
       <c r="B99" t="s">
         <v>39</v>
@@ -7689,7 +7698,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>44008</v>
+        <v>44222</v>
       </c>
       <c r="B100" t="s">
         <v>68</v>
@@ -7715,7 +7724,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>43651</v>
+        <v>44121</v>
       </c>
       <c r="B101" t="s">
         <v>42</v>
@@ -7741,7 +7750,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>44505</v>
+        <v>44825</v>
       </c>
       <c r="B102" t="s">
         <v>68</v>
@@ -7767,7 +7776,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>45065</v>
+        <v>45144</v>
       </c>
       <c r="B103" t="s">
         <v>39</v>
@@ -7790,7 +7799,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>44960</v>
+        <v>45166</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
@@ -7816,7 +7825,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>44522</v>
+        <v>43644</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -7842,7 +7851,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>45008</v>
+        <v>43493</v>
       </c>
       <c r="B106" t="s">
         <v>29</v>
@@ -7868,7 +7877,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43689</v>
+        <v>44347</v>
       </c>
       <c r="B107" t="s">
         <v>68</v>
@@ -7894,7 +7903,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>43875</v>
+        <v>44298</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -7920,7 +7929,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44068</v>
+        <v>44561</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
@@ -7946,7 +7955,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44996</v>
+        <v>44910</v>
       </c>
       <c r="B110" t="s">
         <v>45</v>
@@ -7972,7 +7981,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>45176</v>
+        <v>44204</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -7998,7 +8007,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44501</v>
+        <v>44783</v>
       </c>
       <c r="B112" t="s">
         <v>39</v>
@@ -8024,7 +8033,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44002</v>
+        <v>44067</v>
       </c>
       <c r="B113" t="s">
         <v>68</v>
@@ -8050,7 +8059,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43493</v>
+        <v>44733</v>
       </c>
       <c r="B114" t="s">
         <v>42</v>
@@ -8076,7 +8085,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44681</v>
+        <v>43645</v>
       </c>
       <c r="B115" t="s">
         <v>29</v>
@@ -8102,7 +8111,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>45134</v>
+        <v>44733</v>
       </c>
       <c r="B116" t="s">
         <v>68</v>
@@ -8128,7 +8137,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44194</v>
+        <v>44989</v>
       </c>
       <c r="B117" t="s">
         <v>29</v>
@@ -8154,7 +8163,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44817</v>
+        <v>43809</v>
       </c>
       <c r="B118" t="s">
         <v>39</v>
@@ -8180,7 +8189,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44589</v>
+        <v>44691</v>
       </c>
       <c r="B119" t="s">
         <v>42</v>
@@ -8206,7 +8215,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>45139</v>
+        <v>44130</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
@@ -8229,7 +8238,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>44779</v>
+        <v>43710</v>
       </c>
       <c r="B121" t="s">
         <v>68</v>
@@ -8255,7 +8264,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43494</v>
+        <v>43897</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
@@ -8281,7 +8290,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>44638</v>
+        <v>44741</v>
       </c>
       <c r="B123" t="s">
         <v>39</v>
@@ -8307,7 +8316,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43750</v>
+        <v>43911</v>
       </c>
       <c r="B124" t="s">
         <v>29</v>
@@ -8333,7 +8342,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>43993</v>
+        <v>44549</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
@@ -8359,7 +8368,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43856</v>
+        <v>44136</v>
       </c>
       <c r="B126" t="s">
         <v>68</v>
@@ -8385,7 +8394,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43582</v>
+        <v>43787</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
@@ -8411,7 +8420,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>44718</v>
+        <v>45025</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
@@ -8437,7 +8446,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>44534</v>
+        <v>44720</v>
       </c>
       <c r="B129" t="s">
         <v>39</v>
@@ -8463,7 +8472,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>44925</v>
+        <v>44917</v>
       </c>
       <c r="B130" t="s">
         <v>39</v>
@@ -8489,7 +8498,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>44276</v>
+        <v>44608</v>
       </c>
       <c r="B131" t="s">
         <v>42</v>
@@ -8515,7 +8524,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43789</v>
+        <v>44300</v>
       </c>
       <c r="B132" t="s">
         <v>39</v>
@@ -8541,7 +8550,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43551</v>
+        <v>45026</v>
       </c>
       <c r="B133" t="s">
         <v>29</v>
@@ -8567,7 +8576,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43589</v>
+        <v>43670</v>
       </c>
       <c r="B134" t="s">
         <v>45</v>
@@ -8593,7 +8602,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43581</v>
+        <v>45078</v>
       </c>
       <c r="B135" t="s">
         <v>45</v>
@@ -8619,7 +8628,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>44076</v>
+        <v>43855</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
@@ -8645,7 +8654,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43684</v>
+        <v>45168</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -8671,7 +8680,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>44802</v>
+        <v>44845</v>
       </c>
       <c r="B138" t="s">
         <v>68</v>
@@ -8697,7 +8706,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43690</v>
+        <v>44617</v>
       </c>
       <c r="B139" t="s">
         <v>45</v>
@@ -8723,7 +8732,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>44172</v>
+        <v>45146</v>
       </c>
       <c r="B140" t="s">
         <v>68</v>
@@ -8749,7 +8758,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>44134</v>
+        <v>44942</v>
       </c>
       <c r="B141" t="s">
         <v>29</v>
@@ -8775,7 +8784,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>43693</v>
+        <v>44829</v>
       </c>
       <c r="B142" t="s">
         <v>29</v>
@@ -8801,7 +8810,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>44593</v>
+        <v>44421</v>
       </c>
       <c r="B143" t="s">
         <v>20</v>
@@ -8827,7 +8836,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>44456</v>
+        <v>44237</v>
       </c>
       <c r="B144" t="s">
         <v>45</v>
@@ -8853,7 +8862,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>44267</v>
+        <v>44019</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
@@ -8879,7 +8888,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>44594</v>
+        <v>44630</v>
       </c>
       <c r="B146" t="s">
         <v>39</v>
@@ -8902,7 +8911,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>44803</v>
+        <v>43531</v>
       </c>
       <c r="B147" t="s">
         <v>20</v>
@@ -8928,7 +8937,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>44720</v>
+        <v>44983</v>
       </c>
       <c r="B148" t="s">
         <v>29</v>
@@ -8954,7 +8963,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>44770</v>
+        <v>43832</v>
       </c>
       <c r="B149" t="s">
         <v>42</v>
@@ -8980,7 +8989,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>44894</v>
+        <v>44258</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
@@ -9006,7 +9015,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>44355</v>
+        <v>44194</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
@@ -9032,7 +9041,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>43930</v>
+        <v>44450</v>
       </c>
       <c r="B152" t="s">
         <v>15</v>
@@ -9058,7 +9067,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>44337</v>
+        <v>43777</v>
       </c>
       <c r="B153" t="s">
         <v>45</v>
@@ -9084,7 +9093,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>44422</v>
+        <v>44191</v>
       </c>
       <c r="B154" t="s">
         <v>45</v>
@@ -9110,7 +9119,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>43667</v>
+        <v>44394</v>
       </c>
       <c r="B155" t="s">
         <v>68</v>
@@ -9136,7 +9145,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>43639</v>
+        <v>45123</v>
       </c>
       <c r="B156" t="s">
         <v>39</v>
@@ -9162,7 +9171,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>44826</v>
+        <v>44753</v>
       </c>
       <c r="B157" t="s">
         <v>15</v>
@@ -9188,7 +9197,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>43916</v>
+        <v>44371</v>
       </c>
       <c r="B158" t="s">
         <v>42</v>
@@ -9214,7 +9223,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>44849</v>
+        <v>45139</v>
       </c>
       <c r="B159" t="s">
         <v>20</v>
@@ -9237,7 +9246,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>43917</v>
+        <v>43851</v>
       </c>
       <c r="B160" t="s">
         <v>20</v>
@@ -9263,7 +9272,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>45018</v>
+        <v>43840</v>
       </c>
       <c r="B161" t="s">
         <v>68</v>
@@ -9289,7 +9298,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>44779</v>
+        <v>45178</v>
       </c>
       <c r="B162" t="s">
         <v>20</v>
@@ -9315,7 +9324,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>44941</v>
+        <v>43816</v>
       </c>
       <c r="B163" t="s">
         <v>15</v>
@@ -9341,7 +9350,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>44892</v>
+        <v>44301</v>
       </c>
       <c r="B164" t="s">
         <v>20</v>
@@ -9367,7 +9376,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>45038</v>
+        <v>44176</v>
       </c>
       <c r="B165" t="s">
         <v>45</v>
@@ -9393,7 +9402,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>43908</v>
+        <v>44663</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
@@ -9419,7 +9428,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>44791</v>
+        <v>44984</v>
       </c>
       <c r="B167" t="s">
         <v>45</v>
@@ -9445,7 +9454,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>44363</v>
+        <v>43781</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
@@ -9471,7 +9480,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>44318</v>
+        <v>44216</v>
       </c>
       <c r="B169" t="s">
         <v>15</v>
@@ -9497,7 +9506,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>44267</v>
+        <v>43711</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
@@ -9523,7 +9532,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>44143</v>
+        <v>44540</v>
       </c>
       <c r="B171" t="s">
         <v>68</v>
@@ -9549,7 +9558,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>43753</v>
+        <v>44340</v>
       </c>
       <c r="B172" t="s">
         <v>42</v>
@@ -9575,7 +9584,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>45125</v>
+        <v>45202</v>
       </c>
       <c r="B173" t="s">
         <v>45</v>
@@ -9601,7 +9610,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>44400</v>
+        <v>44024</v>
       </c>
       <c r="B174" t="s">
         <v>45</v>
@@ -9627,7 +9636,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>43874</v>
+        <v>44180</v>
       </c>
       <c r="B175" t="s">
         <v>45</v>
@@ -9653,7 +9662,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>43551</v>
+        <v>43950</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -9679,7 +9688,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>44912</v>
+        <v>44638</v>
       </c>
       <c r="B177" t="s">
         <v>42</v>
@@ -9705,7 +9714,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>43554</v>
+        <v>44801</v>
       </c>
       <c r="B178" t="s">
         <v>45</v>
@@ -9731,7 +9740,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>44758</v>
+        <v>43963</v>
       </c>
       <c r="B179" t="s">
         <v>20</v>
@@ -9757,7 +9766,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>44302</v>
+        <v>44904</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
@@ -9783,7 +9792,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>44944</v>
+        <v>44482</v>
       </c>
       <c r="B181" t="s">
         <v>20</v>
@@ -9809,7 +9818,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>44774</v>
+        <v>44938</v>
       </c>
       <c r="B182" t="s">
         <v>39</v>
@@ -9835,7 +9844,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>43716</v>
+        <v>44242</v>
       </c>
       <c r="B183" t="s">
         <v>20</v>
@@ -9861,7 +9870,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>44176</v>
+        <v>43487</v>
       </c>
       <c r="B184" t="s">
         <v>39</v>
@@ -9887,7 +9896,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>44363</v>
+        <v>44471</v>
       </c>
       <c r="B185" t="s">
         <v>20</v>
@@ -9910,7 +9919,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>44843</v>
+        <v>45171</v>
       </c>
       <c r="B186" t="s">
         <v>39</v>
@@ -9933,7 +9942,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>44955</v>
+        <v>44532</v>
       </c>
       <c r="B187" t="s">
         <v>20</v>
@@ -9959,7 +9968,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>45110</v>
+        <v>44396</v>
       </c>
       <c r="B188" t="s">
         <v>20</v>
@@ -9985,7 +9994,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>44072</v>
+        <v>43815</v>
       </c>
       <c r="B189" t="s">
         <v>68</v>
@@ -10011,7 +10020,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>44859</v>
+        <v>44546</v>
       </c>
       <c r="B190" t="s">
         <v>45</v>
@@ -10037,7 +10046,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>45006</v>
+        <v>45010</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
@@ -10063,7 +10072,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>43782</v>
+        <v>44701</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
@@ -10089,7 +10098,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>45182</v>
+        <v>45122</v>
       </c>
       <c r="B193" t="s">
         <v>20</v>
@@ -10115,7 +10124,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>43674</v>
+        <v>44522</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
@@ -10141,7 +10150,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>44859</v>
+        <v>45062</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
@@ -10167,7 +10176,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>43952</v>
+        <v>44385</v>
       </c>
       <c r="B196" t="s">
         <v>42</v>
@@ -10193,7 +10202,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>43921</v>
+        <v>43678</v>
       </c>
       <c r="B197" t="s">
         <v>29</v>
@@ -10219,7 +10228,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>44736</v>
+        <v>43688</v>
       </c>
       <c r="B198" t="s">
         <v>20</v>
@@ -10245,7 +10254,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>44285</v>
+        <v>43955</v>
       </c>
       <c r="B199" t="s">
         <v>20</v>
@@ -10271,7 +10280,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>43764</v>
+        <v>45077</v>
       </c>
       <c r="B200" t="s">
         <v>68</v>
@@ -10297,7 +10306,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>44824</v>
+        <v>43721</v>
       </c>
       <c r="B201" t="s">
         <v>20</v>
@@ -10323,7 +10332,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>44170</v>
+        <v>44878</v>
       </c>
       <c r="B202" t="s">
         <v>68</v>
@@ -10349,7 +10358,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>44864</v>
+        <v>43626</v>
       </c>
       <c r="B203" t="s">
         <v>20</v>
@@ -10375,7 +10384,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>43508</v>
+        <v>44407</v>
       </c>
       <c r="B204" t="s">
         <v>15</v>
@@ -10401,7 +10410,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>43761</v>
+        <v>44322</v>
       </c>
       <c r="B205" t="s">
         <v>20</v>
@@ -10427,7 +10436,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>43947</v>
+        <v>44588</v>
       </c>
       <c r="B206" t="s">
         <v>8</v>
@@ -10453,7 +10462,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>45005</v>
+        <v>45023</v>
       </c>
       <c r="B207" t="s">
         <v>42</v>
@@ -10479,7 +10488,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>44684</v>
+        <v>44245</v>
       </c>
       <c r="B208" t="s">
         <v>29</v>
@@ -10505,7 +10514,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>43537</v>
+        <v>45202</v>
       </c>
       <c r="B209" t="s">
         <v>8</v>
@@ -10531,7 +10540,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>44215</v>
+        <v>45177</v>
       </c>
       <c r="B210" t="s">
         <v>45</v>
@@ -10557,7 +10566,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>45031</v>
+        <v>44194</v>
       </c>
       <c r="B211" t="s">
         <v>29</v>
@@ -10583,7 +10592,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>44431</v>
+        <v>43773</v>
       </c>
       <c r="B212" t="s">
         <v>15</v>
@@ -10609,7 +10618,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>45030</v>
+        <v>43543</v>
       </c>
       <c r="B213" t="s">
         <v>20</v>
@@ -10635,7 +10644,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>44167</v>
+        <v>44006</v>
       </c>
       <c r="B214" t="s">
         <v>8</v>
@@ -10661,7 +10670,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>45144</v>
+        <v>44986</v>
       </c>
       <c r="B215" t="s">
         <v>29</v>
@@ -10687,7 +10696,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>43544</v>
+        <v>44266</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
@@ -10713,7 +10722,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>45009</v>
+        <v>43883</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
@@ -10739,7 +10748,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>44224</v>
+        <v>44932</v>
       </c>
       <c r="B218" t="s">
         <v>45</v>
@@ -10765,7 +10774,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>44913</v>
+        <v>44521</v>
       </c>
       <c r="B219" t="s">
         <v>20</v>
@@ -10791,7 +10800,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>44691</v>
+        <v>44491</v>
       </c>
       <c r="B220" t="s">
         <v>15</v>
@@ -10817,7 +10826,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>44441</v>
+        <v>43827</v>
       </c>
       <c r="B221" t="s">
         <v>20</v>
@@ -10843,7 +10852,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>43924</v>
+        <v>44592</v>
       </c>
       <c r="B222" t="s">
         <v>45</v>
@@ -10869,7 +10878,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>43821</v>
+        <v>43490</v>
       </c>
       <c r="B223" t="s">
         <v>20</v>
@@ -10895,7 +10904,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>44931</v>
+        <v>43528</v>
       </c>
       <c r="B224" t="s">
         <v>29</v>
@@ -10918,7 +10927,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>45152</v>
+        <v>44159</v>
       </c>
       <c r="B225" t="s">
         <v>29</v>
@@ -10944,7 +10953,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>44002</v>
+        <v>43971</v>
       </c>
       <c r="B226" t="s">
         <v>39</v>
@@ -10970,7 +10979,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>44176</v>
+        <v>44865</v>
       </c>
       <c r="B227" t="s">
         <v>20</v>
@@ -10996,7 +11005,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>44644</v>
+        <v>44220</v>
       </c>
       <c r="B228" t="s">
         <v>68</v>
@@ -11022,7 +11031,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>43498</v>
+        <v>43667</v>
       </c>
       <c r="B229" t="s">
         <v>68</v>
@@ -11048,7 +11057,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>45051</v>
+        <v>43771</v>
       </c>
       <c r="B230" t="s">
         <v>45</v>
@@ -11074,7 +11083,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>44615</v>
+        <v>44469</v>
       </c>
       <c r="B231" t="s">
         <v>15</v>
@@ -11100,7 +11109,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>43795</v>
+        <v>44652</v>
       </c>
       <c r="B232" t="s">
         <v>29</v>
@@ -11126,7 +11135,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>44096</v>
+        <v>44772</v>
       </c>
       <c r="B233" t="s">
         <v>29</v>
@@ -11152,7 +11161,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>43880</v>
+        <v>44648</v>
       </c>
       <c r="B234" t="s">
         <v>20</v>
@@ -11175,7 +11184,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>44606</v>
+        <v>43982</v>
       </c>
       <c r="B235" t="s">
         <v>39</v>
@@ -11201,7 +11210,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>44456</v>
+        <v>45000</v>
       </c>
       <c r="B236" t="s">
         <v>29</v>
@@ -11227,7 +11236,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>45003</v>
+        <v>44437</v>
       </c>
       <c r="B237" t="s">
         <v>39</v>
@@ -11253,7 +11262,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>43910</v>
+        <v>44707</v>
       </c>
       <c r="B238" t="s">
         <v>20</v>
@@ -11279,7 +11288,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>44556</v>
+        <v>44475</v>
       </c>
       <c r="B239" t="s">
         <v>8</v>
@@ -11305,7 +11314,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>43775</v>
+        <v>44925</v>
       </c>
       <c r="B240" t="s">
         <v>20</v>
@@ -11331,7 +11340,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>44488</v>
+        <v>44612</v>
       </c>
       <c r="B241" t="s">
         <v>20</v>
@@ -11357,7 +11366,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>44094</v>
+        <v>43907</v>
       </c>
       <c r="B242" t="s">
         <v>45</v>
@@ -11383,7 +11392,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>44167</v>
+        <v>43670</v>
       </c>
       <c r="B243" t="s">
         <v>29</v>
@@ -11409,7 +11418,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>44353</v>
+        <v>44443</v>
       </c>
       <c r="B244" t="s">
         <v>8</v>
@@ -11435,7 +11444,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>45143</v>
+        <v>44540</v>
       </c>
       <c r="B245" t="s">
         <v>29</v>
@@ -11461,7 +11470,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>44079</v>
+        <v>44402</v>
       </c>
       <c r="B246" t="s">
         <v>29</v>
@@ -11487,7 +11496,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="B247" t="s">
         <v>45</v>
@@ -11513,7 +11522,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>44048</v>
+        <v>44150</v>
       </c>
       <c r="B248" t="s">
         <v>8</v>
@@ -11539,7 +11548,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>43705</v>
+        <v>44597</v>
       </c>
       <c r="B249" t="s">
         <v>45</v>
@@ -11565,7 +11574,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>43933</v>
+        <v>44340</v>
       </c>
       <c r="B250" t="s">
         <v>68</v>
@@ -11591,7 +11600,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>44282</v>
+        <v>44663</v>
       </c>
       <c r="B251" t="s">
         <v>39</v>
@@ -11617,7 +11626,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>44711</v>
+        <v>43885</v>
       </c>
       <c r="B252" t="s">
         <v>8</v>
@@ -11643,7 +11652,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>44232</v>
+        <v>44950</v>
       </c>
       <c r="B253" t="s">
         <v>42</v>
@@ -11669,7 +11678,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>43767</v>
+        <v>43819</v>
       </c>
       <c r="B254" t="s">
         <v>45</v>
@@ -11695,7 +11704,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>44848</v>
+        <v>44859</v>
       </c>
       <c r="B255" t="s">
         <v>39</v>
@@ -11718,7 +11727,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>44010</v>
+        <v>44486</v>
       </c>
       <c r="B256" t="s">
         <v>8</v>
@@ -11744,7 +11753,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>44891</v>
+        <v>43995</v>
       </c>
       <c r="B257" t="s">
         <v>8</v>
@@ -11770,7 +11779,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>43675</v>
+        <v>45145</v>
       </c>
       <c r="B258" t="s">
         <v>20</v>
@@ -11796,7 +11805,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>43571</v>
+        <v>44777</v>
       </c>
       <c r="B259" t="s">
         <v>45</v>
@@ -11822,7 +11831,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>43514</v>
+        <v>44690</v>
       </c>
       <c r="B260" t="s">
         <v>45</v>
@@ -11848,7 +11857,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>43551</v>
+        <v>43744</v>
       </c>
       <c r="B261" t="s">
         <v>39</v>
@@ -11874,7 +11883,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>44664</v>
+        <v>45075</v>
       </c>
       <c r="B262" t="s">
         <v>15</v>
@@ -11900,7 +11909,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>44888</v>
+        <v>45042</v>
       </c>
       <c r="B263" t="s">
         <v>42</v>
@@ -11926,7 +11935,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>44114</v>
+        <v>45089</v>
       </c>
       <c r="B264" t="s">
         <v>68</v>
@@ -11952,7 +11961,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>43967</v>
+        <v>44713</v>
       </c>
       <c r="B265" t="s">
         <v>42</v>
@@ -11978,7 +11987,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>43742</v>
+        <v>45020</v>
       </c>
       <c r="B266" t="s">
         <v>45</v>
@@ -12004,7 +12013,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>44143</v>
+        <v>44540</v>
       </c>
       <c r="B267" t="s">
         <v>15</v>
@@ -12030,7 +12039,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>44861</v>
+        <v>43876</v>
       </c>
       <c r="B268" t="s">
         <v>68</v>
@@ -12053,7 +12062,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>44353</v>
+        <v>43984</v>
       </c>
       <c r="B269" t="s">
         <v>68</v>
@@ -12079,7 +12088,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>44172</v>
+        <v>43967</v>
       </c>
       <c r="B270" t="s">
         <v>42</v>
@@ -12105,7 +12114,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>45000</v>
+        <v>44949</v>
       </c>
       <c r="B271" t="s">
         <v>15</v>
@@ -12131,7 +12140,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>44891</v>
+        <v>44126</v>
       </c>
       <c r="B272" t="s">
         <v>42</v>
@@ -12157,7 +12166,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>44365</v>
+        <v>44539</v>
       </c>
       <c r="B273" t="s">
         <v>29</v>
@@ -12183,7 +12192,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>45082</v>
+        <v>43625</v>
       </c>
       <c r="B274" t="s">
         <v>39</v>
@@ -12209,7 +12218,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>43890</v>
+        <v>45049</v>
       </c>
       <c r="B275" t="s">
         <v>29</v>
@@ -12235,7 +12244,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>44731</v>
+        <v>43718</v>
       </c>
       <c r="B276" t="s">
         <v>15</v>
@@ -12261,7 +12270,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>44774</v>
+        <v>44958</v>
       </c>
       <c r="B277" t="s">
         <v>15</v>
@@ -12287,7 +12296,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>44698</v>
+        <v>44448</v>
       </c>
       <c r="B278" t="s">
         <v>8</v>
@@ -12313,7 +12322,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>43995</v>
+        <v>44387</v>
       </c>
       <c r="B279" t="s">
         <v>39</v>
@@ -12339,7 +12348,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>45054</v>
+        <v>44060</v>
       </c>
       <c r="B280" t="s">
         <v>8</v>
@@ -12365,7 +12374,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>44255</v>
+        <v>43733</v>
       </c>
       <c r="B281" t="s">
         <v>15</v>
@@ -12391,7 +12400,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>45006</v>
+        <v>43765</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
@@ -12417,7 +12426,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>44306</v>
+        <v>44137</v>
       </c>
       <c r="B283" t="s">
         <v>45</v>
@@ -12443,7 +12452,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>45116</v>
+        <v>44897</v>
       </c>
       <c r="B284" t="s">
         <v>29</v>
@@ -12469,7 +12478,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>44816</v>
+        <v>44048</v>
       </c>
       <c r="B285" t="s">
         <v>68</v>
@@ -12495,7 +12504,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>43525</v>
+        <v>43656</v>
       </c>
       <c r="B286" t="s">
         <v>39</v>
@@ -12521,7 +12530,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>44757</v>
+        <v>43733</v>
       </c>
       <c r="B287" t="s">
         <v>20</v>
@@ -12547,7 +12556,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>44158</v>
+        <v>44034</v>
       </c>
       <c r="B288" t="s">
         <v>39</v>
@@ -12573,7 +12582,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>44025</v>
+        <v>45040</v>
       </c>
       <c r="B289" t="s">
         <v>42</v>
@@ -12599,7 +12608,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>45156</v>
+        <v>44248</v>
       </c>
       <c r="B290" t="s">
         <v>39</v>
@@ -12622,7 +12631,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>43629</v>
+        <v>43554</v>
       </c>
       <c r="B291" t="s">
         <v>8</v>
@@ -12648,7 +12657,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>44451</v>
+        <v>44716</v>
       </c>
       <c r="B292" t="s">
         <v>45</v>
@@ -12674,7 +12683,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>43771</v>
+        <v>44639</v>
       </c>
       <c r="B293" t="s">
         <v>39</v>
@@ -12700,7 +12709,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>44699</v>
+        <v>44216</v>
       </c>
       <c r="B294" t="s">
         <v>45</v>
@@ -12726,7 +12735,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>44159</v>
+        <v>44562</v>
       </c>
       <c r="B295" t="s">
         <v>45</v>
@@ -12752,7 +12761,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>44468</v>
+        <v>43596</v>
       </c>
       <c r="B296" t="s">
         <v>42</v>
@@ -12778,7 +12787,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>44206</v>
+        <v>45056</v>
       </c>
       <c r="B297" t="s">
         <v>68</v>
@@ -12804,7 +12813,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>43927</v>
+        <v>43995</v>
       </c>
       <c r="B298" t="s">
         <v>8</v>
@@ -12830,7 +12839,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>44649</v>
+        <v>43956</v>
       </c>
       <c r="B299" t="s">
         <v>68</v>
@@ -12856,7 +12865,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>44123</v>
+        <v>43880</v>
       </c>
       <c r="B300" t="s">
         <v>39</v>
@@ -12882,7 +12891,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>44188</v>
+        <v>43527</v>
       </c>
       <c r="B301" t="s">
         <v>39</v>
@@ -12908,7 +12917,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>43703</v>
+        <v>44675</v>
       </c>
       <c r="B302" t="s">
         <v>8</v>
@@ -12934,7 +12943,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>43734</v>
+        <v>45032</v>
       </c>
       <c r="B303" t="s">
         <v>39</v>
@@ -12960,7 +12969,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>45129</v>
+        <v>43660</v>
       </c>
       <c r="B304" t="s">
         <v>42</v>
@@ -12986,7 +12995,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>44396</v>
+        <v>44050</v>
       </c>
       <c r="B305" t="s">
         <v>42</v>
@@ -13012,7 +13021,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>45059</v>
+        <v>43846</v>
       </c>
       <c r="B306" t="s">
         <v>8</v>
@@ -13038,7 +13047,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>44121</v>
+        <v>44056</v>
       </c>
       <c r="B307" t="s">
         <v>42</v>
@@ -13064,7 +13073,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>43867</v>
+        <v>44086</v>
       </c>
       <c r="B308" t="s">
         <v>29</v>
@@ -13090,7 +13099,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>44010</v>
+        <v>44218</v>
       </c>
       <c r="B309" t="s">
         <v>15</v>
@@ -13116,7 +13125,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>44621</v>
+        <v>43804</v>
       </c>
       <c r="B310" t="s">
         <v>15</v>
@@ -13142,7 +13151,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>43998</v>
+        <v>44274</v>
       </c>
       <c r="B311" t="s">
         <v>15</v>
@@ -13168,7 +13177,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>43534</v>
+        <v>43995</v>
       </c>
       <c r="B312" t="s">
         <v>39</v>
@@ -13194,7 +13203,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>43978</v>
+        <v>43671</v>
       </c>
       <c r="B313" t="s">
         <v>68</v>
@@ -13220,7 +13229,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>45196</v>
+        <v>43842</v>
       </c>
       <c r="B314" t="s">
         <v>42</v>
@@ -13243,7 +13252,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>43867</v>
+        <v>44441</v>
       </c>
       <c r="B315" t="s">
         <v>29</v>
@@ -13269,7 +13278,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>45078</v>
+        <v>44326</v>
       </c>
       <c r="B316" t="s">
         <v>45</v>
@@ -13295,7 +13304,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>44430</v>
+        <v>44783</v>
       </c>
       <c r="B317" t="s">
         <v>42</v>
@@ -13321,7 +13330,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>45174</v>
+        <v>44512</v>
       </c>
       <c r="B318" t="s">
         <v>39</v>
@@ -13347,7 +13356,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>44829</v>
+        <v>43991</v>
       </c>
       <c r="B319" t="s">
         <v>68</v>
@@ -13373,7 +13382,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>43904</v>
+        <v>44802</v>
       </c>
       <c r="B320" t="s">
         <v>45</v>
@@ -13399,7 +13408,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>43805</v>
+        <v>44195</v>
       </c>
       <c r="B321" t="s">
         <v>39</v>
@@ -13425,7 +13434,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>43769</v>
+        <v>44989</v>
       </c>
       <c r="B322" t="s">
         <v>15</v>
@@ -13451,7 +13460,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>43787</v>
+        <v>44447</v>
       </c>
       <c r="B323" t="s">
         <v>68</v>
@@ -13477,7 +13486,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>43503</v>
+        <v>44185</v>
       </c>
       <c r="B324" t="s">
         <v>20</v>
@@ -13503,7 +13512,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>44743</v>
+        <v>44263</v>
       </c>
       <c r="B325" t="s">
         <v>68</v>
@@ -13529,7 +13538,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>44047</v>
+        <v>43485</v>
       </c>
       <c r="B326" t="s">
         <v>68</v>
@@ -13555,7 +13564,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>43629</v>
+        <v>45051</v>
       </c>
       <c r="B327" t="s">
         <v>29</v>
@@ -13581,7 +13590,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>44192</v>
+        <v>44928</v>
       </c>
       <c r="B328" t="s">
         <v>20</v>
@@ -13607,7 +13616,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>44256</v>
+        <v>43813</v>
       </c>
       <c r="B329" t="s">
         <v>29</v>
@@ -13630,7 +13639,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>44589</v>
+        <v>43642</v>
       </c>
       <c r="B330" t="s">
         <v>15</v>
@@ -13656,7 +13665,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>44811</v>
+        <v>44389</v>
       </c>
       <c r="B331" t="s">
         <v>8</v>
@@ -13682,7 +13691,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>44408</v>
+        <v>44715</v>
       </c>
       <c r="B332" t="s">
         <v>42</v>
@@ -13708,7 +13717,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>43570</v>
+        <v>45203</v>
       </c>
       <c r="B333" t="s">
         <v>29</v>
@@ -13734,7 +13743,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>43830</v>
+        <v>44709</v>
       </c>
       <c r="B334" t="s">
         <v>42</v>
@@ -13760,7 +13769,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>43703</v>
+        <v>44916</v>
       </c>
       <c r="B335" t="s">
         <v>15</v>
@@ -13786,7 +13795,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>44332</v>
+        <v>44940</v>
       </c>
       <c r="B336" t="s">
         <v>20</v>
@@ -13812,7 +13821,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>43865</v>
+        <v>45098</v>
       </c>
       <c r="B337" t="s">
         <v>39</v>
@@ -13838,7 +13847,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>43514</v>
+        <v>43643</v>
       </c>
       <c r="B338" t="s">
         <v>29</v>
@@ -13864,7 +13873,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>44180</v>
+        <v>43723</v>
       </c>
       <c r="B339" t="s">
         <v>45</v>
@@ -13890,7 +13899,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>44170</v>
+        <v>44385</v>
       </c>
       <c r="B340" t="s">
         <v>39</v>
@@ -13916,7 +13925,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>44142</v>
+        <v>44054</v>
       </c>
       <c r="B341" t="s">
         <v>45</v>
@@ -13942,7 +13951,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>43621</v>
+        <v>44856</v>
       </c>
       <c r="B342" t="s">
         <v>68</v>
@@ -13968,7 +13977,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>45012</v>
+        <v>45170</v>
       </c>
       <c r="B343" t="s">
         <v>15</v>
@@ -13994,7 +14003,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>44688</v>
+        <v>44728</v>
       </c>
       <c r="B344" t="s">
         <v>8</v>
@@ -14020,7 +14029,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>43964</v>
+        <v>44509</v>
       </c>
       <c r="B345" t="s">
         <v>20</v>
@@ -14046,7 +14055,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>43788</v>
+        <v>44613</v>
       </c>
       <c r="B346" t="s">
         <v>42</v>
@@ -14072,7 +14081,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>44551</v>
+        <v>44973</v>
       </c>
       <c r="B347" t="s">
         <v>45</v>
@@ -14098,7 +14107,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>43566</v>
+        <v>45081</v>
       </c>
       <c r="B348" t="s">
         <v>45</v>
@@ -14124,7 +14133,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>43718</v>
+        <v>44727</v>
       </c>
       <c r="B349" t="s">
         <v>8</v>
@@ -14150,7 +14159,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>44497</v>
+        <v>43562</v>
       </c>
       <c r="B350" t="s">
         <v>29</v>
@@ -14176,7 +14185,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>44564</v>
+        <v>43799</v>
       </c>
       <c r="B351" t="s">
         <v>39</v>
@@ -14202,7 +14211,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>44241</v>
+        <v>44590</v>
       </c>
       <c r="B352" t="s">
         <v>42</v>
@@ -14228,7 +14237,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>43833</v>
+        <v>43691</v>
       </c>
       <c r="B353" t="s">
         <v>42</v>
@@ -14254,7 +14263,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>45100</v>
+        <v>43474</v>
       </c>
       <c r="B354" t="s">
         <v>20</v>
@@ -14280,7 +14289,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>45032</v>
+        <v>44748</v>
       </c>
       <c r="B355" t="s">
         <v>68</v>
@@ -14306,7 +14315,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>44843</v>
+        <v>43830</v>
       </c>
       <c r="B356" t="s">
         <v>42</v>
@@ -14332,7 +14341,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>43938</v>
+        <v>43621</v>
       </c>
       <c r="B357" t="s">
         <v>8</v>
@@ -14358,7 +14367,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>44711</v>
+        <v>44725</v>
       </c>
       <c r="B358" t="s">
         <v>68</v>
@@ -14384,7 +14393,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>43508</v>
+        <v>44094</v>
       </c>
       <c r="B359" t="s">
         <v>68</v>
@@ -14410,7 +14419,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>45019</v>
+        <v>44044</v>
       </c>
       <c r="B360" t="s">
         <v>39</v>
@@ -14436,7 +14445,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>43992</v>
+        <v>44287</v>
       </c>
       <c r="B361" t="s">
         <v>20</v>
@@ -14462,7 +14471,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>44100</v>
+        <v>44349</v>
       </c>
       <c r="B362" t="s">
         <v>8</v>
@@ -14488,7 +14497,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>43583</v>
+        <v>43563</v>
       </c>
       <c r="B363" t="s">
         <v>39</v>
@@ -14514,7 +14523,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>43731</v>
+        <v>44617</v>
       </c>
       <c r="B364" t="s">
         <v>8</v>
@@ -14540,7 +14549,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>43749</v>
+        <v>45164</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -14566,7 +14575,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>44446</v>
+        <v>44701</v>
       </c>
       <c r="B366" t="s">
         <v>20</v>
@@ -14592,7 +14601,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>43678</v>
+        <v>44892</v>
       </c>
       <c r="B367" t="s">
         <v>45</v>
@@ -14618,7 +14627,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>44055</v>
+        <v>44872</v>
       </c>
       <c r="B368" t="s">
         <v>8</v>
@@ -14644,7 +14653,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>43559</v>
+        <v>43972</v>
       </c>
       <c r="B369" t="s">
         <v>42</v>
@@ -14670,7 +14679,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>45146</v>
+        <v>43505</v>
       </c>
       <c r="B370" t="s">
         <v>29</v>
@@ -14696,7 +14705,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>44245</v>
+        <v>45055</v>
       </c>
       <c r="B371" t="s">
         <v>15</v>
@@ -14719,7 +14728,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>44347</v>
+        <v>44273</v>
       </c>
       <c r="B372" t="s">
         <v>8</v>
@@ -14745,7 +14754,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>43673</v>
+        <v>45054</v>
       </c>
       <c r="B373" t="s">
         <v>29</v>
@@ -14771,7 +14780,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>44716</v>
+        <v>44985</v>
       </c>
       <c r="B374" t="s">
         <v>29</v>
@@ -14797,7 +14806,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>43795</v>
+        <v>44064</v>
       </c>
       <c r="B375" t="s">
         <v>20</v>
@@ -14823,7 +14832,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>45166</v>
+        <v>45034</v>
       </c>
       <c r="B376" t="s">
         <v>42</v>
@@ -14849,7 +14858,7 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>43881</v>
+        <v>44493</v>
       </c>
       <c r="B377" t="s">
         <v>39</v>
@@ -14875,7 +14884,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>44167</v>
+        <v>44006</v>
       </c>
       <c r="B378" t="s">
         <v>29</v>
@@ -14901,7 +14910,7 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>44738</v>
+        <v>43717</v>
       </c>
       <c r="B379" t="s">
         <v>45</v>
@@ -14927,7 +14936,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>45186</v>
+        <v>44877</v>
       </c>
       <c r="B380" t="s">
         <v>45</v>
@@ -14953,7 +14962,7 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>43828</v>
+        <v>44889</v>
       </c>
       <c r="B381" t="s">
         <v>39</v>
@@ -14979,7 +14988,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>45121</v>
+        <v>44450</v>
       </c>
       <c r="B382" t="s">
         <v>20</v>
@@ -15005,7 +15014,7 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>44913</v>
+        <v>44819</v>
       </c>
       <c r="B383" t="s">
         <v>8</v>
@@ -15031,7 +15040,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>44677</v>
+        <v>43535</v>
       </c>
       <c r="B384" t="s">
         <v>45</v>
@@ -15057,7 +15066,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>43473</v>
+        <v>44694</v>
       </c>
       <c r="B385" t="s">
         <v>15</v>
@@ -15083,7 +15092,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>44008</v>
+        <v>44938</v>
       </c>
       <c r="B386" t="s">
         <v>8</v>
@@ -15109,7 +15118,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>44236</v>
+        <v>43515</v>
       </c>
       <c r="B387" t="s">
         <v>15</v>
@@ -15135,7 +15144,7 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>43834</v>
+        <v>43874</v>
       </c>
       <c r="B388" t="s">
         <v>39</v>
@@ -15161,7 +15170,7 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>44550</v>
+        <v>44354</v>
       </c>
       <c r="B389" t="s">
         <v>15</v>
@@ -15187,7 +15196,7 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>43550</v>
+        <v>44851</v>
       </c>
       <c r="B390" t="s">
         <v>42</v>
@@ -15213,7 +15222,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>44457</v>
+        <v>45118</v>
       </c>
       <c r="B391" t="s">
         <v>29</v>
@@ -15239,7 +15248,7 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>43914</v>
+        <v>43543</v>
       </c>
       <c r="B392" t="s">
         <v>8</v>
@@ -15265,7 +15274,7 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>44458</v>
+        <v>44271</v>
       </c>
       <c r="B393" t="s">
         <v>29</v>
@@ -15288,7 +15297,7 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>44894</v>
+        <v>44333</v>
       </c>
       <c r="B394" t="s">
         <v>15</v>
@@ -15314,7 +15323,7 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>43485</v>
+        <v>43511</v>
       </c>
       <c r="B395" t="s">
         <v>8</v>
@@ -15340,7 +15349,7 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>45121</v>
+        <v>44450</v>
       </c>
       <c r="B396" t="s">
         <v>39</v>
@@ -15366,7 +15375,7 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>44200</v>
+        <v>44564</v>
       </c>
       <c r="B397" t="s">
         <v>20</v>
@@ -15392,7 +15401,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>45111</v>
+        <v>43924</v>
       </c>
       <c r="B398" t="s">
         <v>8</v>
@@ -15415,7 +15424,7 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>45032</v>
+        <v>43926</v>
       </c>
       <c r="B399" t="s">
         <v>45</v>
@@ -15441,7 +15450,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>44665</v>
+        <v>43908</v>
       </c>
       <c r="B400" t="s">
         <v>45</v>
@@ -15467,7 +15476,7 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>44178</v>
+        <v>44096</v>
       </c>
       <c r="B401" t="s">
         <v>15</v>
@@ -15493,7 +15502,7 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>44521</v>
+        <v>43817</v>
       </c>
       <c r="B402" t="s">
         <v>45</v>
@@ -15519,7 +15528,7 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>43505</v>
+        <v>44389</v>
       </c>
       <c r="B403" t="s">
         <v>8</v>
@@ -15545,7 +15554,7 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>44008</v>
+        <v>44938</v>
       </c>
       <c r="B404" t="s">
         <v>15</v>
@@ -15571,7 +15580,7 @@
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>43881</v>
+        <v>43804</v>
       </c>
       <c r="B405" t="s">
         <v>20</v>
@@ -15597,7 +15606,7 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>44947</v>
+        <v>44709</v>
       </c>
       <c r="B406" t="s">
         <v>39</v>
@@ -15623,7 +15632,7 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>45135</v>
+        <v>44424</v>
       </c>
       <c r="B407" t="s">
         <v>39</v>
@@ -15649,7 +15658,7 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>43947</v>
+        <v>44304</v>
       </c>
       <c r="B408" t="s">
         <v>45</v>
@@ -15675,7 +15684,7 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>44189</v>
+        <v>44784</v>
       </c>
       <c r="B409" t="s">
         <v>39</v>
@@ -15701,7 +15710,7 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>44057</v>
+        <v>44527</v>
       </c>
       <c r="B410" t="s">
         <v>45</v>
@@ -15727,7 +15736,7 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>43664</v>
+        <v>44883</v>
       </c>
       <c r="B411" t="s">
         <v>20</v>
@@ -15753,7 +15762,7 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>43882</v>
+        <v>43919</v>
       </c>
       <c r="B412" t="s">
         <v>39</v>
@@ -15779,7 +15788,7 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>44652</v>
+        <v>44045</v>
       </c>
       <c r="B413" t="s">
         <v>42</v>
@@ -15805,7 +15814,7 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>43869</v>
+        <v>44742</v>
       </c>
       <c r="B414" t="s">
         <v>8</v>
@@ -15831,7 +15840,7 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>43784</v>
+        <v>44508</v>
       </c>
       <c r="B415" t="s">
         <v>8</v>
@@ -15857,7 +15866,7 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>45045</v>
+        <v>44075</v>
       </c>
       <c r="B416" t="s">
         <v>45</v>
@@ -15883,7 +15892,7 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>44170</v>
+        <v>43968</v>
       </c>
       <c r="B417" t="s">
         <v>29</v>
@@ -15909,7 +15918,7 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>43721</v>
+        <v>45167</v>
       </c>
       <c r="B418" t="s">
         <v>42</v>
@@ -15935,7 +15944,7 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>44990</v>
+        <v>44280</v>
       </c>
       <c r="B419" t="s">
         <v>42</v>
@@ -15961,7 +15970,7 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>45045</v>
+        <v>44075</v>
       </c>
       <c r="B420" t="s">
         <v>8</v>
@@ -15987,7 +15996,7 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>44954</v>
+        <v>43704</v>
       </c>
       <c r="B421" t="s">
         <v>29</v>
@@ -16013,7 +16022,7 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>44296</v>
+        <v>45030</v>
       </c>
       <c r="B422" t="s">
         <v>15</v>
@@ -16039,7 +16048,7 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>43506</v>
+        <v>45050</v>
       </c>
       <c r="B423" t="s">
         <v>39</v>
@@ -16065,7 +16074,7 @@
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>45164</v>
+        <v>43564</v>
       </c>
       <c r="B424" t="s">
         <v>68</v>
@@ -16091,7 +16100,7 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>43867</v>
+        <v>45134</v>
       </c>
       <c r="B425" t="s">
         <v>20</v>
@@ -16117,7 +16126,7 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>45158</v>
+        <v>44865</v>
       </c>
       <c r="B426" t="s">
         <v>20</v>
@@ -16143,7 +16152,7 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>43922</v>
+        <v>43858</v>
       </c>
       <c r="B427" t="s">
         <v>39</v>
@@ -16169,7 +16178,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>43632</v>
+        <v>44401</v>
       </c>
       <c r="B428" t="s">
         <v>39</v>
@@ -16195,7 +16204,7 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>44036</v>
+        <v>45120</v>
       </c>
       <c r="B429" t="s">
         <v>42</v>
@@ -16221,7 +16230,7 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>44528</v>
+        <v>44554</v>
       </c>
       <c r="B430" t="s">
         <v>29</v>
@@ -16247,7 +16256,7 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>44815</v>
+        <v>44204</v>
       </c>
       <c r="B431" t="s">
         <v>42</v>
@@ -16273,7 +16282,7 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>43568</v>
+        <v>45023</v>
       </c>
       <c r="B432" t="s">
         <v>45</v>
@@ -16296,7 +16305,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>44869</v>
+        <v>44861</v>
       </c>
       <c r="B433" t="s">
         <v>20</v>
@@ -16322,7 +16331,7 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>44969</v>
+        <v>43596</v>
       </c>
       <c r="B434" t="s">
         <v>20</v>
@@ -16348,7 +16357,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>44562</v>
+        <v>43961</v>
       </c>
       <c r="B435" t="s">
         <v>8</v>
@@ -16374,7 +16383,7 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>45124</v>
+        <v>44498</v>
       </c>
       <c r="B436" t="s">
         <v>20</v>
@@ -16400,7 +16409,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>43954</v>
+        <v>44378</v>
       </c>
       <c r="B437" t="s">
         <v>8</v>
@@ -16426,7 +16435,7 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>44791</v>
+        <v>44984</v>
       </c>
       <c r="B438" t="s">
         <v>45</v>
@@ -16452,7 +16461,7 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>45036</v>
+        <v>44816</v>
       </c>
       <c r="B439" t="s">
         <v>20</v>
@@ -16478,7 +16487,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>44677</v>
+        <v>44940</v>
       </c>
       <c r="B440" t="s">
         <v>8</v>
@@ -16501,7 +16510,7 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>43927</v>
+        <v>44881</v>
       </c>
       <c r="B441" t="s">
         <v>15</v>
@@ -16527,7 +16536,7 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>45194</v>
+        <v>44604</v>
       </c>
       <c r="B442" t="s">
         <v>42</v>
@@ -16553,7 +16562,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>44692</v>
+        <v>43806</v>
       </c>
       <c r="B443" t="s">
         <v>15</v>
@@ -16579,7 +16588,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>44544</v>
+        <v>43955</v>
       </c>
       <c r="B444" t="s">
         <v>42</v>
@@ -16605,7 +16614,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>43914</v>
+        <v>45133</v>
       </c>
       <c r="B445" t="s">
         <v>8</v>
@@ -16631,7 +16640,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>45046</v>
+        <v>44581</v>
       </c>
       <c r="B446" t="s">
         <v>42</v>
@@ -16657,7 +16666,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>43782</v>
+        <v>43558</v>
       </c>
       <c r="B447" t="s">
         <v>42</v>
@@ -16683,7 +16692,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>44008</v>
+        <v>45081</v>
       </c>
       <c r="B448" t="s">
         <v>15</v>
@@ -16709,7 +16718,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>44151</v>
+        <v>44298</v>
       </c>
       <c r="B449" t="s">
         <v>29</v>
@@ -16735,7 +16744,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>44350</v>
+        <v>43512</v>
       </c>
       <c r="B450" t="s">
         <v>39</v>
@@ -16761,7 +16770,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>44239</v>
+        <v>43538</v>
       </c>
       <c r="B451" t="s">
         <v>15</v>
@@ -16787,7 +16796,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>43730</v>
+        <v>44128</v>
       </c>
       <c r="B452" t="s">
         <v>68</v>
@@ -16813,7 +16822,7 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>44353</v>
+        <v>44404</v>
       </c>
       <c r="B453" t="s">
         <v>45</v>
@@ -16839,7 +16848,7 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>44407</v>
+        <v>44627</v>
       </c>
       <c r="B454" t="s">
         <v>39</v>
@@ -16865,7 +16874,7 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>45164</v>
+        <v>44178</v>
       </c>
       <c r="B455" t="s">
         <v>39</v>
@@ -16891,7 +16900,7 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>45172</v>
+        <v>44427</v>
       </c>
       <c r="B456" t="s">
         <v>42</v>
@@ -16917,7 +16926,7 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>44322</v>
+        <v>44708</v>
       </c>
       <c r="B457" t="s">
         <v>68</v>
@@ -16943,7 +16952,7 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>44097</v>
+        <v>43911</v>
       </c>
       <c r="B458" t="s">
         <v>20</v>
@@ -16969,7 +16978,7 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>44421</v>
+        <v>43713</v>
       </c>
       <c r="B459" t="s">
         <v>29</v>
@@ -16995,7 +17004,7 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>44224</v>
+        <v>44464</v>
       </c>
       <c r="B460" t="s">
         <v>42</v>
@@ -17021,7 +17030,7 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>44185</v>
+        <v>44221</v>
       </c>
       <c r="B461" t="s">
         <v>8</v>
@@ -17047,7 +17056,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>44921</v>
+        <v>43689</v>
       </c>
       <c r="B462" t="s">
         <v>15</v>
@@ -17073,7 +17082,7 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>45001</v>
+        <v>43898</v>
       </c>
       <c r="B463" t="s">
         <v>42</v>
@@ -17099,7 +17108,7 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>45160</v>
+        <v>43890</v>
       </c>
       <c r="B464" t="s">
         <v>39</v>
@@ -17125,7 +17134,7 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>43531</v>
+        <v>45052</v>
       </c>
       <c r="B465" t="s">
         <v>39</v>
@@ -17151,7 +17160,7 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>43928</v>
+        <v>44360</v>
       </c>
       <c r="B466" t="s">
         <v>42</v>
@@ -17177,7 +17186,7 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>43795</v>
+        <v>44520</v>
       </c>
       <c r="B467" t="s">
         <v>20</v>
@@ -17203,7 +17212,7 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>44699</v>
+        <v>45162</v>
       </c>
       <c r="B468" t="s">
         <v>42</v>
@@ -17229,7 +17238,7 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>44650</v>
+        <v>44968</v>
       </c>
       <c r="B469" t="s">
         <v>42</v>
@@ -17255,7 +17264,7 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>44328</v>
+        <v>45143</v>
       </c>
       <c r="B470" t="s">
         <v>15</v>
@@ -17281,7 +17290,7 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>44975</v>
+        <v>43705</v>
       </c>
       <c r="B471" t="s">
         <v>45</v>
@@ -17307,7 +17316,7 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>43639</v>
+        <v>44744</v>
       </c>
       <c r="B472" t="s">
         <v>15</v>
@@ -17333,7 +17342,7 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>43700</v>
+        <v>44942</v>
       </c>
       <c r="B473" t="s">
         <v>39</v>
@@ -17356,7 +17365,7 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>43782</v>
+        <v>44561</v>
       </c>
       <c r="B474" t="s">
         <v>39</v>
@@ -17382,7 +17391,7 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>45075</v>
+        <v>43705</v>
       </c>
       <c r="B475" t="s">
         <v>39</v>
@@ -17408,7 +17417,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>43863</v>
+        <v>44789</v>
       </c>
       <c r="B476" t="s">
         <v>8</v>
@@ -17434,7 +17443,7 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>43683</v>
+        <v>44009</v>
       </c>
       <c r="B477" t="s">
         <v>20</v>
@@ -17460,7 +17469,7 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>44941</v>
+        <v>44515</v>
       </c>
       <c r="B478" t="s">
         <v>68</v>
@@ -17486,7 +17495,7 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>44203</v>
+        <v>44744</v>
       </c>
       <c r="B479" t="s">
         <v>8</v>
@@ -17512,7 +17521,7 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>44199</v>
+        <v>44728</v>
       </c>
       <c r="B480" t="s">
         <v>15</v>
@@ -17538,7 +17547,7 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>43530</v>
+        <v>43957</v>
       </c>
       <c r="B481" t="s">
         <v>42</v>
@@ -17564,7 +17573,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>44958</v>
+        <v>43973</v>
       </c>
       <c r="B482" t="s">
         <v>20</v>
@@ -17590,7 +17599,7 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="B483" t="s">
         <v>39</v>
@@ -17616,7 +17625,7 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>43912</v>
+        <v>44712</v>
       </c>
       <c r="B484" t="s">
         <v>45</v>
@@ -17642,7 +17651,7 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>44770</v>
+        <v>45180</v>
       </c>
       <c r="B485" t="s">
         <v>29</v>
@@ -17668,7 +17677,7 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>44425</v>
+        <v>44474</v>
       </c>
       <c r="B486" t="s">
         <v>8</v>
@@ -17694,7 +17703,7 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>44685</v>
+        <v>43739</v>
       </c>
       <c r="B487" t="s">
         <v>45</v>
@@ -17720,7 +17729,7 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>44739</v>
+        <v>43575</v>
       </c>
       <c r="B488" t="s">
         <v>29</v>
@@ -17746,7 +17755,7 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>44143</v>
+        <v>43982</v>
       </c>
       <c r="B489" t="s">
         <v>45</v>
@@ -17769,7 +17778,7 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>44252</v>
+        <v>43907</v>
       </c>
       <c r="B490" t="s">
         <v>68</v>
@@ -17795,7 +17804,7 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>44470</v>
+        <v>44594</v>
       </c>
       <c r="B491" t="s">
         <v>42</v>
@@ -17821,7 +17830,7 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>44394</v>
+        <v>44386</v>
       </c>
       <c r="B492" t="s">
         <v>8</v>
@@ -17847,7 +17856,7 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>43997</v>
+        <v>43980</v>
       </c>
       <c r="B493" t="s">
         <v>15</v>
@@ -17873,7 +17882,7 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>44456</v>
+        <v>45110</v>
       </c>
       <c r="B494" t="s">
         <v>45</v>
@@ -17899,7 +17908,7 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>44112</v>
+        <v>44757</v>
       </c>
       <c r="B495" t="s">
         <v>45</v>
@@ -17925,7 +17934,7 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>43695</v>
+        <v>43903</v>
       </c>
       <c r="B496" t="s">
         <v>39</v>
@@ -17951,7 +17960,7 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>43518</v>
+        <v>44664</v>
       </c>
       <c r="B497" t="s">
         <v>39</v>
@@ -17977,7 +17986,7 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>43994</v>
+        <v>44140</v>
       </c>
       <c r="B498" t="s">
         <v>15</v>
@@ -18003,7 +18012,7 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>44199</v>
+        <v>45078</v>
       </c>
       <c r="B499" t="s">
         <v>68</v>
@@ -18029,7 +18038,7 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>43488</v>
+        <v>43785</v>
       </c>
       <c r="B500" t="s">
         <v>45</v>
@@ -18055,7 +18064,7 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>44216</v>
+        <v>44588</v>
       </c>
       <c r="B501" t="s">
         <v>29</v>
@@ -18081,7 +18090,7 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>44928</v>
+        <v>45175</v>
       </c>
       <c r="B502" t="s">
         <v>45</v>
@@ -18107,7 +18116,7 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>44937</v>
+        <v>44025</v>
       </c>
       <c r="B503" t="s">
         <v>39</v>
@@ -18133,7 +18142,7 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>44678</v>
+        <v>43576</v>
       </c>
       <c r="B504" t="s">
         <v>42</v>
@@ -18159,7 +18168,7 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>43569</v>
+        <v>44445</v>
       </c>
       <c r="B505" t="s">
         <v>29</v>
@@ -18185,7 +18194,7 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>44340</v>
+        <v>44902</v>
       </c>
       <c r="B506" t="s">
         <v>29</v>
@@ -18211,7 +18220,7 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>45194</v>
+        <v>44604</v>
       </c>
       <c r="B507" t="s">
         <v>68</v>
@@ -18237,7 +18246,7 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>44542</v>
+        <v>45174</v>
       </c>
       <c r="B508" t="s">
         <v>15</v>
@@ -18263,7 +18272,7 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>43775</v>
+        <v>44815</v>
       </c>
       <c r="B509" t="s">
         <v>20</v>
@@ -18289,7 +18298,7 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>45054</v>
+        <v>44060</v>
       </c>
       <c r="B510" t="s">
         <v>15</v>
@@ -18315,7 +18324,7 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>45007</v>
+        <v>44809</v>
       </c>
       <c r="B511" t="s">
         <v>45</v>
@@ -18341,7 +18350,7 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>44191</v>
+        <v>44033</v>
       </c>
       <c r="B512" t="s">
         <v>68</v>
@@ -18367,7 +18376,7 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>43996</v>
+        <v>44227</v>
       </c>
       <c r="B513" t="s">
         <v>20</v>
@@ -18393,7 +18402,7 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>44839</v>
+        <v>44732</v>
       </c>
       <c r="B514" t="s">
         <v>29</v>
@@ -18419,7 +18428,7 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>44252</v>
+        <v>43705</v>
       </c>
       <c r="B515" t="s">
         <v>15</v>
@@ -18445,7 +18454,7 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>43524</v>
+        <v>44282</v>
       </c>
       <c r="B516" t="s">
         <v>42</v>
@@ -18471,7 +18480,7 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>44765</v>
+        <v>44821</v>
       </c>
       <c r="B517" t="s">
         <v>29</v>
@@ -18497,7 +18506,7 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>44976</v>
+        <v>44109</v>
       </c>
       <c r="B518" t="s">
         <v>15</v>
@@ -18523,7 +18532,7 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>43977</v>
+        <v>45043</v>
       </c>
       <c r="B519" t="s">
         <v>42</v>
@@ -18549,7 +18558,7 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>45007</v>
+        <v>44524</v>
       </c>
       <c r="B520" t="s">
         <v>68</v>
@@ -18575,7 +18584,7 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>43696</v>
+        <v>44361</v>
       </c>
       <c r="B521" t="s">
         <v>29</v>
@@ -18601,7 +18610,7 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>44516</v>
+        <v>44573</v>
       </c>
       <c r="B522" t="s">
         <v>45</v>
@@ -18627,7 +18636,7 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>43864</v>
+        <v>44554</v>
       </c>
       <c r="B523" t="s">
         <v>68</v>
@@ -18653,7 +18662,7 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>44145</v>
+        <v>43532</v>
       </c>
       <c r="B524" t="s">
         <v>45</v>
@@ -18679,7 +18688,7 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>43803</v>
+        <v>44584</v>
       </c>
       <c r="B525" t="s">
         <v>39</v>
@@ -18705,7 +18714,7 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>44566</v>
+        <v>45097</v>
       </c>
       <c r="B526" t="s">
         <v>20</v>
@@ -18731,7 +18740,7 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>45010</v>
+        <v>44851</v>
       </c>
       <c r="B527" t="s">
         <v>29</v>
@@ -18757,7 +18766,7 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>43760</v>
+        <v>43786</v>
       </c>
       <c r="B528" t="s">
         <v>20</v>
@@ -18783,7 +18792,7 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>44160</v>
+        <v>45166</v>
       </c>
       <c r="B529" t="s">
         <v>68</v>
@@ -18806,7 +18815,7 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>44420</v>
+        <v>44900</v>
       </c>
       <c r="B530" t="s">
         <v>45</v>
@@ -18832,7 +18841,7 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>43721</v>
+        <v>45167</v>
       </c>
       <c r="B531" t="s">
         <v>8</v>
@@ -18858,7 +18867,7 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>44983</v>
+        <v>43964</v>
       </c>
       <c r="B532" t="s">
         <v>8</v>
@@ -18884,7 +18893,7 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>44822</v>
+        <v>44685</v>
       </c>
       <c r="B533" t="s">
         <v>42</v>
@@ -18910,7 +18919,7 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>43818</v>
+        <v>44719</v>
       </c>
       <c r="B534" t="s">
         <v>39</v>
@@ -18936,7 +18945,7 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>43833</v>
+        <v>44752</v>
       </c>
       <c r="B535" t="s">
         <v>20</v>
@@ -18962,7 +18971,7 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>44593</v>
+        <v>43756</v>
       </c>
       <c r="B536" t="s">
         <v>29</v>
@@ -18985,7 +18994,7 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>44720</v>
+        <v>44158</v>
       </c>
       <c r="B537" t="s">
         <v>39</v>
@@ -19011,7 +19020,7 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>43803</v>
+        <v>45061</v>
       </c>
       <c r="B538" t="s">
         <v>39</v>
@@ -19037,7 +19046,7 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>44777</v>
+        <v>44986</v>
       </c>
       <c r="B539" t="s">
         <v>45</v>
@@ -19063,7 +19072,7 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>43735</v>
+        <v>44712</v>
       </c>
       <c r="B540" t="s">
         <v>42</v>
@@ -19089,7 +19098,7 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>43682</v>
+        <v>45087</v>
       </c>
       <c r="B541" t="s">
         <v>68</v>
@@ -19115,7 +19124,7 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>43673</v>
+        <v>44979</v>
       </c>
       <c r="B542" t="s">
         <v>45</v>
@@ -19141,7 +19150,7 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>44527</v>
+        <v>43850</v>
       </c>
       <c r="B543" t="s">
         <v>68</v>
@@ -19167,7 +19176,7 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <v>44871</v>
+        <v>44965</v>
       </c>
       <c r="B544" t="s">
         <v>20</v>
@@ -19193,7 +19202,7 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <v>44065</v>
+        <v>43546</v>
       </c>
       <c r="B545" t="s">
         <v>45</v>
@@ -19219,7 +19228,7 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <v>44364</v>
+        <v>43874</v>
       </c>
       <c r="B546" t="s">
         <v>68</v>
@@ -19242,7 +19251,7 @@
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>44021</v>
+        <v>45056</v>
       </c>
       <c r="B547" t="s">
         <v>45</v>
@@ -19268,7 +19277,7 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>44460</v>
+        <v>44052</v>
       </c>
       <c r="B548" t="s">
         <v>68</v>
@@ -19294,7 +19303,7 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <v>44800</v>
+        <v>43578</v>
       </c>
       <c r="B549" t="s">
         <v>15</v>
@@ -19320,7 +19329,7 @@
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <v>44523</v>
+        <v>44660</v>
       </c>
       <c r="B550" t="s">
         <v>20</v>
@@ -19346,7 +19355,7 @@
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <v>44723</v>
+        <v>43709</v>
       </c>
       <c r="B551" t="s">
         <v>29</v>
@@ -19372,7 +19381,7 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>44881</v>
+        <v>43500</v>
       </c>
       <c r="B552" t="s">
         <v>15</v>
@@ -19398,7 +19407,7 @@
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>44883</v>
+        <v>44171</v>
       </c>
       <c r="B553" t="s">
         <v>8</v>
@@ -19424,7 +19433,7 @@
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <v>45011</v>
+        <v>44026</v>
       </c>
       <c r="B554" t="s">
         <v>20</v>
@@ -19450,7 +19459,7 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <v>44426</v>
+        <v>44824</v>
       </c>
       <c r="B555" t="s">
         <v>39</v>
@@ -19476,7 +19485,7 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <v>43977</v>
+        <v>43531</v>
       </c>
       <c r="B556" t="s">
         <v>29</v>
@@ -19502,7 +19511,7 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <v>43679</v>
+        <v>45072</v>
       </c>
       <c r="B557" t="s">
         <v>20</v>
@@ -19528,7 +19537,7 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <v>43749</v>
+        <v>43884</v>
       </c>
       <c r="B558" t="s">
         <v>15</v>
@@ -19554,7 +19563,7 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <v>44580</v>
+        <v>44932</v>
       </c>
       <c r="B559" t="s">
         <v>15</v>
@@ -19580,7 +19589,7 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <v>44769</v>
+        <v>44190</v>
       </c>
       <c r="B560" t="s">
         <v>39</v>
@@ -19603,7 +19612,7 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <v>44564</v>
+        <v>43799</v>
       </c>
       <c r="B561" t="s">
         <v>68</v>
@@ -19629,7 +19638,7 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
-        <v>45129</v>
+        <v>43660</v>
       </c>
       <c r="B562" t="s">
         <v>20</v>
@@ -19655,7 +19664,7 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
-        <v>44204</v>
+        <v>44367</v>
       </c>
       <c r="B563" t="s">
         <v>15</v>
@@ -19681,7 +19690,7 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
-        <v>44897</v>
+        <v>44201</v>
       </c>
       <c r="B564" t="s">
         <v>39</v>
@@ -19704,7 +19713,7 @@
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <v>44843</v>
+        <v>44032</v>
       </c>
       <c r="B565" t="s">
         <v>39</v>
@@ -19730,7 +19739,7 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
-        <v>43508</v>
+        <v>44889</v>
       </c>
       <c r="B566" t="s">
         <v>29</v>
@@ -19753,7 +19762,7 @@
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
-        <v>44430</v>
+        <v>44783</v>
       </c>
       <c r="B567" t="s">
         <v>8</v>
@@ -19779,7 +19788,7 @@
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
-        <v>44122</v>
+        <v>44702</v>
       </c>
       <c r="B568" t="s">
         <v>15</v>
@@ -19805,7 +19814,7 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
-        <v>43685</v>
+        <v>44633</v>
       </c>
       <c r="B569" t="s">
         <v>15</v>
@@ -19831,7 +19840,7 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
-        <v>43854</v>
+        <v>44209</v>
       </c>
       <c r="B570" t="s">
         <v>20</v>
@@ -19857,7 +19866,7 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <v>43538</v>
+        <v>44974</v>
       </c>
       <c r="B571" t="s">
         <v>42</v>
@@ -19883,7 +19892,7 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <v>43802</v>
+        <v>44499</v>
       </c>
       <c r="B572" t="s">
         <v>8</v>
@@ -19909,7 +19918,7 @@
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <v>44473</v>
+        <v>44751</v>
       </c>
       <c r="B573" t="s">
         <v>42</v>
@@ -19935,7 +19944,7 @@
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <v>45096</v>
+        <v>43633</v>
       </c>
       <c r="B574" t="s">
         <v>42</v>
@@ -19961,7 +19970,7 @@
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <v>44599</v>
+        <v>43793</v>
       </c>
       <c r="B575" t="s">
         <v>42</v>
@@ -19987,7 +19996,7 @@
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <v>44170</v>
+        <v>43912</v>
       </c>
       <c r="B576" t="s">
         <v>29</v>
@@ -20013,7 +20022,7 @@
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <v>43873</v>
+        <v>44572</v>
       </c>
       <c r="B577" t="s">
         <v>45</v>
@@ -20039,7 +20048,7 @@
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <v>44381</v>
+        <v>43709</v>
       </c>
       <c r="B578" t="s">
         <v>68</v>
@@ -20065,7 +20074,7 @@
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <v>43863</v>
+        <v>43508</v>
       </c>
       <c r="B579" t="s">
         <v>68</v>
@@ -20091,7 +20100,7 @@
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <v>44036</v>
+        <v>44396</v>
       </c>
       <c r="B580" t="s">
         <v>20</v>
@@ -20117,7 +20126,7 @@
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <v>43470</v>
+        <v>43884</v>
       </c>
       <c r="B581" t="s">
         <v>15</v>
@@ -20140,7 +20149,7 @@
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
-        <v>44418</v>
+        <v>44800</v>
       </c>
       <c r="B582" t="s">
         <v>20</v>
@@ -20166,7 +20175,7 @@
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
-        <v>43590</v>
+        <v>44918</v>
       </c>
       <c r="B583" t="s">
         <v>20</v>
@@ -20192,7 +20201,7 @@
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
-        <v>44973</v>
+        <v>43479</v>
       </c>
       <c r="B584" t="s">
         <v>42</v>
@@ -20218,7 +20227,7 @@
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <v>44715</v>
+        <v>43496</v>
       </c>
       <c r="B585" t="s">
         <v>42</v>
@@ -20244,7 +20253,7 @@
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <v>44137</v>
+        <v>44073</v>
       </c>
       <c r="B586" t="s">
         <v>39</v>
@@ -20270,7 +20279,7 @@
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
-        <v>44578</v>
+        <v>43527</v>
       </c>
       <c r="B587" t="s">
         <v>39</v>
@@ -20293,7 +20302,7 @@
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
-        <v>43768</v>
+        <v>43723</v>
       </c>
       <c r="B588" t="s">
         <v>8</v>
@@ -20319,7 +20328,7 @@
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
-        <v>43502</v>
+        <v>44003</v>
       </c>
       <c r="B589" t="s">
         <v>20</v>
@@ -20345,7 +20354,7 @@
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
-        <v>44106</v>
+        <v>44146</v>
       </c>
       <c r="B590" t="s">
         <v>39</v>
@@ -20371,7 +20380,7 @@
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
-        <v>44051</v>
+        <v>44599</v>
       </c>
       <c r="B591" t="s">
         <v>42</v>
@@ -20397,7 +20406,7 @@
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
-        <v>44872</v>
+        <v>44413</v>
       </c>
       <c r="B592" t="s">
         <v>39</v>
@@ -20423,7 +20432,7 @@
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
-        <v>43642</v>
+        <v>45047</v>
       </c>
       <c r="B593" t="s">
         <v>8</v>
@@ -20449,7 +20458,7 @@
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
-        <v>43684</v>
+        <v>43773</v>
       </c>
       <c r="B594" t="s">
         <v>8</v>
@@ -20475,7 +20484,7 @@
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
-        <v>43954</v>
+        <v>45117</v>
       </c>
       <c r="B595" t="s">
         <v>42</v>
@@ -20501,7 +20510,7 @@
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
-        <v>44876</v>
+        <v>43517</v>
       </c>
       <c r="B596" t="s">
         <v>8</v>
@@ -20527,7 +20536,7 @@
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
-        <v>45167</v>
+        <v>43543</v>
       </c>
       <c r="B597" t="s">
         <v>68</v>
@@ -20553,7 +20562,7 @@
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
-        <v>43743</v>
+        <v>43561</v>
       </c>
       <c r="B598" t="s">
         <v>20</v>
@@ -20579,7 +20588,7 @@
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
-        <v>43667</v>
+        <v>44394</v>
       </c>
       <c r="B599" t="s">
         <v>29</v>
@@ -20605,7 +20614,7 @@
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
-        <v>45049</v>
+        <v>44050</v>
       </c>
       <c r="B600" t="s">
         <v>8</v>
@@ -20631,7 +20640,7 @@
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
-        <v>44412</v>
+        <v>43761</v>
       </c>
       <c r="B601" t="s">
         <v>39</v>
@@ -20657,7 +20666,7 @@
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
-        <v>45194</v>
+        <v>43531</v>
       </c>
       <c r="B602" t="s">
         <v>8</v>
@@ -20680,7 +20689,7 @@
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
-        <v>44678</v>
+        <v>44122</v>
       </c>
       <c r="B603" t="s">
         <v>20</v>
@@ -20706,7 +20715,7 @@
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
-        <v>43992</v>
+        <v>45179</v>
       </c>
       <c r="B604" t="s">
         <v>45</v>
@@ -20732,7 +20741,7 @@
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
-        <v>43996</v>
+        <v>44227</v>
       </c>
       <c r="B605" t="s">
         <v>8</v>
@@ -20758,7 +20767,7 @@
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
-        <v>44427</v>
+        <v>44069</v>
       </c>
       <c r="B606" t="s">
         <v>45</v>
@@ -20784,7 +20793,7 @@
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
-        <v>43772</v>
+        <v>43727</v>
       </c>
       <c r="B607" t="s">
         <v>29</v>
@@ -20810,7 +20819,7 @@
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
-        <v>44506</v>
+        <v>44798</v>
       </c>
       <c r="B608" t="s">
         <v>8</v>
@@ -20836,7 +20845,7 @@
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
-        <v>45111</v>
+        <v>43554</v>
       </c>
       <c r="B609" t="s">
         <v>20</v>
@@ -20862,7 +20871,7 @@
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
-        <v>44305</v>
+        <v>43695</v>
       </c>
       <c r="B610" t="s">
         <v>45</v>
@@ -20888,7 +20897,7 @@
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
-        <v>44065</v>
+        <v>43546</v>
       </c>
       <c r="B611" t="s">
         <v>42</v>
@@ -20914,7 +20923,7 @@
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
-        <v>44935</v>
+        <v>44067</v>
       </c>
       <c r="B612" t="s">
         <v>39</v>
@@ -20940,7 +20949,7 @@
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
-        <v>44654</v>
+        <v>44636</v>
       </c>
       <c r="B613" t="s">
         <v>8</v>
@@ -20966,7 +20975,7 @@
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
-        <v>44455</v>
+        <v>44438</v>
       </c>
       <c r="B614" t="s">
         <v>42</v>
@@ -20992,7 +21001,7 @@
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
-        <v>43583</v>
+        <v>43545</v>
       </c>
       <c r="B615" t="s">
         <v>45</v>
@@ -21018,7 +21027,7 @@
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
-        <v>43952</v>
+        <v>43703</v>
       </c>
       <c r="B616" t="s">
         <v>42</v>
@@ -21044,7 +21053,7 @@
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
-        <v>44045</v>
+        <v>43880</v>
       </c>
       <c r="B617" t="s">
         <v>8</v>
@@ -21067,7 +21076,7 @@
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
-        <v>43813</v>
+        <v>44609</v>
       </c>
       <c r="B618" t="s">
         <v>8</v>
@@ -21093,7 +21102,7 @@
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
-        <v>44358</v>
+        <v>44699</v>
       </c>
       <c r="B619" t="s">
         <v>20</v>
@@ -21116,7 +21125,7 @@
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <v>43724</v>
+        <v>44675</v>
       </c>
       <c r="B620" t="s">
         <v>8</v>
@@ -21142,7 +21151,7 @@
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
-        <v>44586</v>
+        <v>45052</v>
       </c>
       <c r="B621" t="s">
         <v>42</v>
@@ -21168,7 +21177,7 @@
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
-        <v>44029</v>
+        <v>44074</v>
       </c>
       <c r="B622" t="s">
         <v>8</v>
@@ -21194,7 +21203,7 @@
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
-        <v>44772</v>
+        <v>43843</v>
       </c>
       <c r="B623" t="s">
         <v>20</v>
@@ -21217,7 +21226,7 @@
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
-        <v>43947</v>
+        <v>44543</v>
       </c>
       <c r="B624" t="s">
         <v>68</v>
@@ -21240,7 +21249,7 @@
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
-        <v>44546</v>
+        <v>44706</v>
       </c>
       <c r="B625" t="s">
         <v>45</v>
@@ -21263,7 +21272,7 @@
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
-        <v>44506</v>
+        <v>43784</v>
       </c>
       <c r="B626" t="s">
         <v>20</v>
@@ -21286,7 +21295,7 @@
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
-        <v>43693</v>
+        <v>43627</v>
       </c>
       <c r="B627" t="s">
         <v>39</v>
@@ -21309,7 +21318,7 @@
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
-        <v>44338</v>
+        <v>43518</v>
       </c>
       <c r="B628" t="s">
         <v>8</v>
@@ -21332,7 +21341,7 @@
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
-        <v>43657</v>
+        <v>44100</v>
       </c>
       <c r="B629" t="s">
         <v>20</v>
@@ -21355,7 +21364,7 @@
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
-        <v>45154</v>
+        <v>44883</v>
       </c>
       <c r="B630" t="s">
         <v>39</v>
@@ -21381,7 +21390,7 @@
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
-        <v>44666</v>
+        <v>45117</v>
       </c>
       <c r="B631" t="s">
         <v>8</v>
@@ -21407,7 +21416,7 @@
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
-        <v>45004</v>
+        <v>44641</v>
       </c>
       <c r="B632" t="s">
         <v>39</v>
@@ -21433,7 +21442,7 @@
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
-        <v>43489</v>
+        <v>44084</v>
       </c>
       <c r="B633" t="s">
         <v>45</v>
@@ -21459,7 +21468,7 @@
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
-        <v>43526</v>
+        <v>44163</v>
       </c>
       <c r="B634" t="s">
         <v>29</v>
@@ -21485,7 +21494,7 @@
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
-        <v>45015</v>
+        <v>43768</v>
       </c>
       <c r="B635" t="s">
         <v>42</v>
@@ -21511,7 +21520,7 @@
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
-        <v>44629</v>
+        <v>44940</v>
       </c>
       <c r="B636" t="s">
         <v>20</v>
@@ -21537,7 +21546,7 @@
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
-        <v>44302</v>
+        <v>45171</v>
       </c>
       <c r="B637" t="s">
         <v>15</v>
@@ -21560,7 +21569,7 @@
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
-        <v>44933</v>
+        <v>44799</v>
       </c>
       <c r="B638" t="s">
         <v>45</v>
@@ -21583,7 +21592,7 @@
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
-        <v>44090</v>
+        <v>43590</v>
       </c>
       <c r="B639" t="s">
         <v>42</v>
@@ -21609,7 +21618,7 @@
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
-        <v>44396</v>
+        <v>44923</v>
       </c>
       <c r="B640" t="s">
         <v>29</v>
@@ -21635,7 +21644,7 @@
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
-        <v>44740</v>
+        <v>44886</v>
       </c>
       <c r="B641" t="s">
         <v>68</v>
@@ -21661,7 +21670,7 @@
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
-        <v>43715</v>
+        <v>44043</v>
       </c>
       <c r="B642" t="s">
         <v>39</v>
@@ -21687,7 +21696,7 @@
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
-        <v>43780</v>
+        <v>45089</v>
       </c>
       <c r="B643" t="s">
         <v>8</v>
@@ -21713,7 +21722,7 @@
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
-        <v>43480</v>
+        <v>43606</v>
       </c>
       <c r="B644" t="s">
         <v>20</v>
@@ -21739,7 +21748,7 @@
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
-        <v>43884</v>
+        <v>43649</v>
       </c>
       <c r="B645" t="s">
         <v>29</v>
@@ -21765,7 +21774,7 @@
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
-        <v>44821</v>
+        <v>44511</v>
       </c>
       <c r="B646" t="s">
         <v>15</v>
@@ -21791,7 +21800,7 @@
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
-        <v>43484</v>
+        <v>44094</v>
       </c>
       <c r="B647" t="s">
         <v>68</v>
@@ -21817,7 +21826,7 @@
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
-        <v>44886</v>
+        <v>43719</v>
       </c>
       <c r="B648" t="s">
         <v>39</v>
@@ -21843,7 +21852,7 @@
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
-        <v>44035</v>
+        <v>45084</v>
       </c>
       <c r="B649" t="s">
         <v>68</v>
@@ -21869,7 +21878,7 @@
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
-        <v>43811</v>
+        <v>44136</v>
       </c>
       <c r="B650" t="s">
         <v>8</v>
@@ -21895,7 +21904,7 @@
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
-        <v>44828</v>
+        <v>43994</v>
       </c>
       <c r="B651" t="s">
         <v>45</v>
@@ -21921,7 +21930,7 @@
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
-        <v>45103</v>
+        <v>45038</v>
       </c>
       <c r="B652" t="s">
         <v>45</v>
@@ -21944,7 +21953,7 @@
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
-        <v>44315</v>
+        <v>44922</v>
       </c>
       <c r="B653" t="s">
         <v>20</v>
@@ -21967,7 +21976,7 @@
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
-        <v>44921</v>
+        <v>44020</v>
       </c>
       <c r="B654" t="s">
         <v>39</v>
@@ -21990,7 +21999,7 @@
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
-        <v>44409</v>
+        <v>43754</v>
       </c>
       <c r="B655" t="s">
         <v>45</v>
@@ -22016,7 +22025,7 @@
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
-        <v>44390</v>
+        <v>43571</v>
       </c>
       <c r="B656" t="s">
         <v>15</v>
@@ -22039,7 +22048,7 @@
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
-        <v>45192</v>
+        <v>44657</v>
       </c>
       <c r="B657" t="s">
         <v>68</v>
@@ -22065,7 +22074,7 @@
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
-        <v>44696</v>
+        <v>45144</v>
       </c>
       <c r="B658" t="s">
         <v>42</v>
@@ -22088,7 +22097,7 @@
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
-        <v>44512</v>
+        <v>43576</v>
       </c>
       <c r="B659" t="s">
         <v>20</v>
@@ -22114,7 +22123,7 @@
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
-        <v>44717</v>
+        <v>44949</v>
       </c>
       <c r="B660" t="s">
         <v>42</v>
@@ -22140,7 +22149,7 @@
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
-        <v>44983</v>
+        <v>44100</v>
       </c>
       <c r="B661" t="s">
         <v>45</v>
@@ -22166,7 +22175,7 @@
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
-        <v>44825</v>
+        <v>44526</v>
       </c>
       <c r="B662" t="s">
         <v>15</v>
@@ -22192,7 +22201,7 @@
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
-        <v>45069</v>
+        <v>43784</v>
       </c>
       <c r="B663" t="s">
         <v>20</v>
@@ -22218,7 +22227,7 @@
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
-        <v>43715</v>
+        <v>43542</v>
       </c>
       <c r="B664" t="s">
         <v>20</v>
@@ -22244,7 +22253,7 @@
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
-        <v>43802</v>
+        <v>45142</v>
       </c>
       <c r="B665" t="s">
         <v>39</v>
@@ -22270,7 +22279,7 @@
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
-        <v>45195</v>
+        <v>44312</v>
       </c>
       <c r="B666" t="s">
         <v>29</v>
@@ -22296,7 +22305,7 @@
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
-        <v>44455</v>
+        <v>44438</v>
       </c>
       <c r="B667" t="s">
         <v>45</v>
@@ -22322,7 +22331,7 @@
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
-        <v>44916</v>
+        <v>44872</v>
       </c>
       <c r="B668" t="s">
         <v>68</v>
@@ -22348,7 +22357,7 @@
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
-        <v>44674</v>
+        <v>44376</v>
       </c>
       <c r="B669" t="s">
         <v>20</v>
@@ -22374,7 +22383,7 @@
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
-        <v>44774</v>
+        <v>43644</v>
       </c>
       <c r="B670" t="s">
         <v>42</v>
@@ -22400,7 +22409,7 @@
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
-        <v>43827</v>
+        <v>44657</v>
       </c>
       <c r="B671" t="s">
         <v>45</v>
@@ -22426,7 +22435,7 @@
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
-        <v>44532</v>
+        <v>44616</v>
       </c>
       <c r="B672" t="s">
         <v>8</v>
@@ -22452,7 +22461,7 @@
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
-        <v>45087</v>
+        <v>44468</v>
       </c>
       <c r="B673" t="s">
         <v>8</v>
@@ -22475,7 +22484,7 @@
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
-        <v>43685</v>
+        <v>44488</v>
       </c>
       <c r="B674" t="s">
         <v>68</v>
@@ -22501,7 +22510,7 @@
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
-        <v>44935</v>
+        <v>44658</v>
       </c>
       <c r="B675" t="s">
         <v>15</v>
@@ -22527,7 +22536,7 @@
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
-        <v>44189</v>
+        <v>44843</v>
       </c>
       <c r="B676" t="s">
         <v>39</v>
@@ -22553,7 +22562,7 @@
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
-        <v>44751</v>
+        <v>43712</v>
       </c>
       <c r="B677" t="s">
         <v>15</v>
@@ -22579,7 +22588,7 @@
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
-        <v>44068</v>
+        <v>45126</v>
       </c>
       <c r="B678" t="s">
         <v>42</v>
@@ -22605,7 +22614,7 @@
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
-        <v>44742</v>
+        <v>43679</v>
       </c>
       <c r="B679" t="s">
         <v>15</v>
@@ -22631,7 +22640,7 @@
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
-        <v>44910</v>
+        <v>43610</v>
       </c>
       <c r="B680" t="s">
         <v>8</v>
@@ -22657,7 +22666,7 @@
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
-        <v>43538</v>
+        <v>44051</v>
       </c>
       <c r="B681" t="s">
         <v>29</v>
@@ -22683,7 +22692,7 @@
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
-        <v>44378</v>
+        <v>44175</v>
       </c>
       <c r="B682" t="s">
         <v>45</v>
@@ -22709,7 +22718,7 @@
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
-        <v>45186</v>
+        <v>44293</v>
       </c>
       <c r="B683" t="s">
         <v>45</v>
@@ -22735,7 +22744,7 @@
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
-        <v>44891</v>
+        <v>44865</v>
       </c>
       <c r="B684" t="s">
         <v>42</v>
@@ -22761,7 +22770,7 @@
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
-        <v>44698</v>
+        <v>44770</v>
       </c>
       <c r="B685" t="s">
         <v>15</v>
@@ -22787,7 +22796,7 @@
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
-        <v>43833</v>
+        <v>44359</v>
       </c>
       <c r="B686" t="s">
         <v>68</v>
@@ -22813,7 +22822,7 @@
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
-        <v>45115</v>
+        <v>45064</v>
       </c>
       <c r="B687" t="s">
         <v>15</v>
@@ -22836,7 +22845,7 @@
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
-        <v>44335</v>
+        <v>45068</v>
       </c>
       <c r="B688" t="s">
         <v>68</v>
@@ -22862,7 +22871,7 @@
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
-        <v>44107</v>
+        <v>45144</v>
       </c>
       <c r="B689" t="s">
         <v>68</v>
@@ -22888,7 +22897,7 @@
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
-        <v>45186</v>
+        <v>43502</v>
       </c>
       <c r="B690" t="s">
         <v>42</v>
@@ -22914,7 +22923,7 @@
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
-        <v>45038</v>
+        <v>44684</v>
       </c>
       <c r="B691" t="s">
         <v>68</v>
@@ -22937,7 +22946,7 @@
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
-        <v>43886</v>
+        <v>44460</v>
       </c>
       <c r="B692" t="s">
         <v>8</v>
@@ -22963,7 +22972,7 @@
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
-        <v>44187</v>
+        <v>43996</v>
       </c>
       <c r="B693" t="s">
         <v>42</v>
@@ -22986,7 +22995,7 @@
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
-        <v>44354</v>
+        <v>44567</v>
       </c>
       <c r="B694" t="s">
         <v>39</v>
@@ -23012,7 +23021,7 @@
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
-        <v>44723</v>
+        <v>45055</v>
       </c>
       <c r="B695" t="s">
         <v>20</v>
@@ -23038,7 +23047,7 @@
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
-        <v>43850</v>
+        <v>43687</v>
       </c>
       <c r="B696" t="s">
         <v>20</v>
@@ -23064,7 +23073,7 @@
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
-        <v>44723</v>
+        <v>44318</v>
       </c>
       <c r="B697" t="s">
         <v>68</v>
@@ -23090,7 +23099,7 @@
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
-        <v>43917</v>
+        <v>44283</v>
       </c>
       <c r="B698" t="s">
         <v>42</v>
@@ -23116,7 +23125,7 @@
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
-        <v>45120</v>
+        <v>44134</v>
       </c>
       <c r="B699" t="s">
         <v>45</v>
@@ -23142,7 +23151,7 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
-        <v>44591</v>
+        <v>43809</v>
       </c>
       <c r="B700" t="s">
         <v>29</v>

--- a/powerbi/powerbi_sample_dataset/complaint.xlsx
+++ b/powerbi/powerbi_sample_dataset/complaint.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilnair/Documents/ByteSize Trainings/curriculum/powerbi/powerbi_sample_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B277D2C1-2994-C848-8546-6F7AC51EC505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C43599-8A71-4D4F-B0DC-C3851586F796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5119,7 +5119,7 @@
   <dimension ref="A1:H700"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44501</v>
+        <v>43550</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44708</v>
+        <v>44769</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45046</v>
+        <v>44856</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44531</v>
+        <v>44235</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43699</v>
+        <v>43936</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44865</v>
+        <v>45102</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44344</v>
+        <v>44136</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43750</v>
+        <v>44311</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44551</v>
+        <v>43745</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43708</v>
+        <v>43888</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43754</v>
+        <v>44750</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44653</v>
+        <v>43578</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43819</v>
+        <v>44675</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43666</v>
+        <v>45016</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44129</v>
+        <v>44256</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43676</v>
+        <v>43906</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45023</v>
+        <v>44540</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44190</v>
+        <v>43550</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44416</v>
+        <v>45161</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44299</v>
+        <v>45189</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43557</v>
+        <v>45182</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44094</v>
+        <v>43659</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45207</v>
+        <v>43842</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44465</v>
+        <v>43629</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44512</v>
+        <v>44180</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44421</v>
+        <v>44047</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45036</v>
+        <v>44619</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>45110</v>
+        <v>43612</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44582</v>
+        <v>45130</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>45006</v>
+        <v>43994</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44249</v>
+        <v>44291</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43907</v>
+        <v>43523</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44524</v>
+        <v>44282</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44597</v>
+        <v>44009</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
@@ -6043,7 +6043,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44436</v>
+        <v>43490</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44793</v>
+        <v>44479</v>
       </c>
       <c r="B37" t="s">
         <v>68</v>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43717</v>
+        <v>44475</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44722</v>
+        <v>44982</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -6144,7 +6144,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44809</v>
+        <v>44294</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44312</v>
+        <v>43491</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43534</v>
+        <v>43919</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44748</v>
+        <v>44292</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -6248,7 +6248,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44202</v>
+        <v>43735</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44026</v>
+        <v>44553</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44775</v>
+        <v>43850</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43509</v>
+        <v>43702</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44959</v>
+        <v>44946</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44138</v>
+        <v>43522</v>
       </c>
       <c r="B49" t="s">
         <v>68</v>
@@ -6401,7 +6401,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43598</v>
+        <v>44388</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44691</v>
+        <v>43736</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44811</v>
+        <v>44834</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43712</v>
+        <v>44050</v>
       </c>
       <c r="B53" t="s">
         <v>42</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44907</v>
+        <v>45038</v>
       </c>
       <c r="B54" t="s">
         <v>45</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43836</v>
+        <v>44389</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44647</v>
+        <v>45063</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -6583,7 +6583,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44515</v>
+        <v>44884</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>45036</v>
+        <v>43617</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44427</v>
+        <v>43652</v>
       </c>
       <c r="B59" t="s">
         <v>29</v>
@@ -6661,7 +6661,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44721</v>
+        <v>44838</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44848</v>
+        <v>44757</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43748</v>
+        <v>45225</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44129</v>
+        <v>44469</v>
       </c>
       <c r="B63" t="s">
         <v>42</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44263</v>
+        <v>44874</v>
       </c>
       <c r="B64" t="s">
         <v>45</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>43743</v>
+        <v>44561</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43527</v>
+        <v>43764</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44253</v>
+        <v>43620</v>
       </c>
       <c r="B67" t="s">
         <v>29</v>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43574</v>
+        <v>44707</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43714</v>
+        <v>45231</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>45000</v>
+        <v>45047</v>
       </c>
       <c r="B70" t="s">
         <v>45</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44742</v>
+        <v>44976</v>
       </c>
       <c r="B71" t="s">
         <v>42</v>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44411</v>
+        <v>45030</v>
       </c>
       <c r="B72" t="s">
         <v>42</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>45004</v>
+        <v>45029</v>
       </c>
       <c r="B73" t="s">
         <v>42</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44988</v>
+        <v>43740</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44040</v>
+        <v>43774</v>
       </c>
       <c r="B75" t="s">
         <v>68</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44959</v>
+        <v>44569</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43942</v>
+        <v>45130</v>
       </c>
       <c r="B77" t="s">
         <v>29</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43504</v>
+        <v>44278</v>
       </c>
       <c r="B78" t="s">
         <v>29</v>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44728</v>
+        <v>44697</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44209</v>
+        <v>44165</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43473</v>
+        <v>43873</v>
       </c>
       <c r="B81" t="s">
         <v>39</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44859</v>
+        <v>44295</v>
       </c>
       <c r="B82" t="s">
         <v>68</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43819</v>
+        <v>43495</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>44602</v>
+        <v>44254</v>
       </c>
       <c r="B84" t="s">
         <v>68</v>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>44582</v>
+        <v>45177</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>45004</v>
+        <v>45029</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -7360,7 +7360,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>44150</v>
+        <v>43526</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>44359</v>
+        <v>43890</v>
       </c>
       <c r="B88" t="s">
         <v>45</v>
@@ -7412,7 +7412,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>44954</v>
+        <v>44236</v>
       </c>
       <c r="B89" t="s">
         <v>39</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>44138</v>
+        <v>43960</v>
       </c>
       <c r="B90" t="s">
         <v>42</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>44252</v>
+        <v>43497</v>
       </c>
       <c r="B91" t="s">
         <v>29</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43987</v>
+        <v>43500</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>45117</v>
+        <v>43470</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>44095</v>
+        <v>44073</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43717</v>
+        <v>44788</v>
       </c>
       <c r="B95" t="s">
         <v>68</v>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>44941</v>
+        <v>44984</v>
       </c>
       <c r="B96" t="s">
         <v>68</v>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>44186</v>
+        <v>43502</v>
       </c>
       <c r="B97" t="s">
         <v>42</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>44529</v>
+        <v>44780</v>
       </c>
       <c r="B98" t="s">
         <v>39</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>44559</v>
+        <v>43930</v>
       </c>
       <c r="B99" t="s">
         <v>39</v>
@@ -7698,7 +7698,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>44222</v>
+        <v>44103</v>
       </c>
       <c r="B100" t="s">
         <v>68</v>
@@ -7724,7 +7724,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>44121</v>
+        <v>44927</v>
       </c>
       <c r="B101" t="s">
         <v>42</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>44825</v>
+        <v>45058</v>
       </c>
       <c r="B102" t="s">
         <v>68</v>
@@ -7776,7 +7776,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>45144</v>
+        <v>43934</v>
       </c>
       <c r="B103" t="s">
         <v>39</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>45166</v>
+        <v>44249</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
@@ -7825,7 +7825,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>43644</v>
+        <v>44375</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43493</v>
+        <v>45131</v>
       </c>
       <c r="B106" t="s">
         <v>29</v>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>44347</v>
+        <v>44046</v>
       </c>
       <c r="B107" t="s">
         <v>68</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>44298</v>
+        <v>44193</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -7929,7 +7929,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44561</v>
+        <v>43538</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
@@ -7955,7 +7955,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44910</v>
+        <v>43871</v>
       </c>
       <c r="B110" t="s">
         <v>45</v>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44204</v>
+        <v>44174</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -8007,7 +8007,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44783</v>
+        <v>45017</v>
       </c>
       <c r="B112" t="s">
         <v>39</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44067</v>
+        <v>43866</v>
       </c>
       <c r="B113" t="s">
         <v>68</v>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44733</v>
+        <v>44157</v>
       </c>
       <c r="B114" t="s">
         <v>42</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43645</v>
+        <v>43982</v>
       </c>
       <c r="B115" t="s">
         <v>29</v>
@@ -8111,7 +8111,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44733</v>
+        <v>44989</v>
       </c>
       <c r="B116" t="s">
         <v>68</v>
@@ -8137,7 +8137,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44989</v>
+        <v>44267</v>
       </c>
       <c r="B117" t="s">
         <v>29</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43809</v>
+        <v>44940</v>
       </c>
       <c r="B118" t="s">
         <v>39</v>
@@ -8189,7 +8189,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44691</v>
+        <v>44125</v>
       </c>
       <c r="B119" t="s">
         <v>42</v>
@@ -8215,7 +8215,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>44130</v>
+        <v>43670</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
@@ -8238,7 +8238,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43710</v>
+        <v>43486</v>
       </c>
       <c r="B121" t="s">
         <v>68</v>
@@ -8264,7 +8264,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43897</v>
+        <v>45090</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>44741</v>
+        <v>44559</v>
       </c>
       <c r="B123" t="s">
         <v>39</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43911</v>
+        <v>43787</v>
       </c>
       <c r="B124" t="s">
         <v>29</v>
@@ -8342,7 +8342,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>44549</v>
+        <v>44227</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>44136</v>
+        <v>44051</v>
       </c>
       <c r="B126" t="s">
         <v>68</v>
@@ -8394,7 +8394,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43787</v>
+        <v>43823</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
@@ -8420,7 +8420,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>45025</v>
+        <v>44250</v>
       </c>
       <c r="B128" t="s">
         <v>15</v>
@@ -8446,7 +8446,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>44720</v>
+        <v>43560</v>
       </c>
       <c r="B129" t="s">
         <v>39</v>
@@ -8472,7 +8472,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>44917</v>
+        <v>43508</v>
       </c>
       <c r="B130" t="s">
         <v>39</v>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>44608</v>
+        <v>43966</v>
       </c>
       <c r="B131" t="s">
         <v>42</v>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>44300</v>
+        <v>44917</v>
       </c>
       <c r="B132" t="s">
         <v>39</v>
@@ -8550,7 +8550,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>45026</v>
+        <v>44762</v>
       </c>
       <c r="B133" t="s">
         <v>29</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43670</v>
+        <v>44932</v>
       </c>
       <c r="B134" t="s">
         <v>45</v>
@@ -8602,7 +8602,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>45078</v>
+        <v>43526</v>
       </c>
       <c r="B135" t="s">
         <v>45</v>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43855</v>
+        <v>43751</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>45168</v>
+        <v>44008</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>44845</v>
+        <v>43659</v>
       </c>
       <c r="B138" t="s">
         <v>68</v>
@@ -8706,7 +8706,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>44617</v>
+        <v>45002</v>
       </c>
       <c r="B139" t="s">
         <v>45</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>45146</v>
+        <v>43562</v>
       </c>
       <c r="B140" t="s">
         <v>68</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>44942</v>
+        <v>44556</v>
       </c>
       <c r="B141" t="s">
         <v>29</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>44829</v>
+        <v>43811</v>
       </c>
       <c r="B142" t="s">
         <v>29</v>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>44421</v>
+        <v>43589</v>
       </c>
       <c r="B143" t="s">
         <v>20</v>
@@ -8836,7 +8836,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>44237</v>
+        <v>43813</v>
       </c>
       <c r="B144" t="s">
         <v>45</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>44019</v>
+        <v>43768</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>44630</v>
+        <v>45143</v>
       </c>
       <c r="B146" t="s">
         <v>39</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>43531</v>
+        <v>44238</v>
       </c>
       <c r="B147" t="s">
         <v>20</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>44983</v>
+        <v>43560</v>
       </c>
       <c r="B148" t="s">
         <v>29</v>
@@ -8963,7 +8963,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>43832</v>
+        <v>44573</v>
       </c>
       <c r="B149" t="s">
         <v>42</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>44258</v>
+        <v>44669</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>44194</v>
+        <v>44626</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
@@ -9041,7 +9041,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>44450</v>
+        <v>44737</v>
       </c>
       <c r="B152" t="s">
         <v>15</v>
@@ -9067,7 +9067,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>43777</v>
+        <v>43636</v>
       </c>
       <c r="B153" t="s">
         <v>45</v>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>44191</v>
+        <v>44156</v>
       </c>
       <c r="B154" t="s">
         <v>45</v>
@@ -9119,7 +9119,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>44394</v>
+        <v>43763</v>
       </c>
       <c r="B155" t="s">
         <v>68</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>45123</v>
+        <v>43968</v>
       </c>
       <c r="B156" t="s">
         <v>39</v>
@@ -9171,7 +9171,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>44753</v>
+        <v>43574</v>
       </c>
       <c r="B157" t="s">
         <v>15</v>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>44371</v>
+        <v>44084</v>
       </c>
       <c r="B158" t="s">
         <v>42</v>
@@ -9223,7 +9223,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>45139</v>
+        <v>43481</v>
       </c>
       <c r="B159" t="s">
         <v>20</v>
@@ -9246,7 +9246,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>43851</v>
+        <v>43970</v>
       </c>
       <c r="B160" t="s">
         <v>20</v>
@@ -9272,7 +9272,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>43840</v>
+        <v>44054</v>
       </c>
       <c r="B161" t="s">
         <v>68</v>
@@ -9298,7 +9298,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>45178</v>
+        <v>43853</v>
       </c>
       <c r="B162" t="s">
         <v>20</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>43816</v>
+        <v>45192</v>
       </c>
       <c r="B163" t="s">
         <v>15</v>
@@ -9350,7 +9350,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>44301</v>
+        <v>43916</v>
       </c>
       <c r="B164" t="s">
         <v>20</v>
@@ -9376,7 +9376,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>44176</v>
+        <v>43940</v>
       </c>
       <c r="B165" t="s">
         <v>45</v>
@@ -9402,7 +9402,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>44663</v>
+        <v>43909</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
@@ -9428,7 +9428,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>44984</v>
+        <v>43469</v>
       </c>
       <c r="B167" t="s">
         <v>45</v>
@@ -9454,7 +9454,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>43781</v>
+        <v>45006</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
@@ -9480,7 +9480,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>44216</v>
+        <v>44298</v>
       </c>
       <c r="B169" t="s">
         <v>15</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>43711</v>
+        <v>44595</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>44540</v>
+        <v>43676</v>
       </c>
       <c r="B171" t="s">
         <v>68</v>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>44340</v>
+        <v>44946</v>
       </c>
       <c r="B172" t="s">
         <v>42</v>
@@ -9584,7 +9584,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>45202</v>
+        <v>44575</v>
       </c>
       <c r="B173" t="s">
         <v>45</v>
@@ -9610,7 +9610,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>44024</v>
+        <v>44682</v>
       </c>
       <c r="B174" t="s">
         <v>45</v>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>44180</v>
+        <v>44671</v>
       </c>
       <c r="B175" t="s">
         <v>45</v>
@@ -9662,7 +9662,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>43950</v>
+        <v>44211</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -9688,7 +9688,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>44638</v>
+        <v>45036</v>
       </c>
       <c r="B177" t="s">
         <v>42</v>
@@ -9714,7 +9714,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>44801</v>
+        <v>44279</v>
       </c>
       <c r="B178" t="s">
         <v>45</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>43963</v>
+        <v>43731</v>
       </c>
       <c r="B179" t="s">
         <v>20</v>
@@ -9766,7 +9766,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>44904</v>
+        <v>44990</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
@@ -9792,7 +9792,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>44482</v>
+        <v>44747</v>
       </c>
       <c r="B181" t="s">
         <v>20</v>
@@ -9818,7 +9818,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>44938</v>
+        <v>43743</v>
       </c>
       <c r="B182" t="s">
         <v>39</v>
@@ -9844,7 +9844,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>44242</v>
+        <v>45047</v>
       </c>
       <c r="B183" t="s">
         <v>20</v>
@@ -9870,7 +9870,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>43487</v>
+        <v>43718</v>
       </c>
       <c r="B184" t="s">
         <v>39</v>
@@ -9896,7 +9896,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>44471</v>
+        <v>44196</v>
       </c>
       <c r="B185" t="s">
         <v>20</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>45171</v>
+        <v>44345</v>
       </c>
       <c r="B186" t="s">
         <v>39</v>
@@ -9942,7 +9942,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>44532</v>
+        <v>44671</v>
       </c>
       <c r="B187" t="s">
         <v>20</v>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>44396</v>
+        <v>43583</v>
       </c>
       <c r="B188" t="s">
         <v>20</v>
@@ -9994,7 +9994,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>43815</v>
+        <v>43715</v>
       </c>
       <c r="B189" t="s">
         <v>68</v>
@@ -10020,7 +10020,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>44546</v>
+        <v>44178</v>
       </c>
       <c r="B190" t="s">
         <v>45</v>
@@ -10046,7 +10046,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>45010</v>
+        <v>44572</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
@@ -10072,7 +10072,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>44701</v>
+        <v>44557</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
@@ -10098,7 +10098,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>45122</v>
+        <v>45166</v>
       </c>
       <c r="B193" t="s">
         <v>20</v>
@@ -10124,7 +10124,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>44522</v>
+        <v>45039</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>45062</v>
+        <v>44562</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
@@ -10176,7 +10176,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>44385</v>
+        <v>45222</v>
       </c>
       <c r="B196" t="s">
         <v>42</v>
@@ -10202,7 +10202,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>43678</v>
+        <v>43970</v>
       </c>
       <c r="B197" t="s">
         <v>29</v>
@@ -10228,7 +10228,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>43688</v>
+        <v>43592</v>
       </c>
       <c r="B198" t="s">
         <v>20</v>
@@ -10254,7 +10254,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>43955</v>
+        <v>44623</v>
       </c>
       <c r="B199" t="s">
         <v>20</v>
@@ -10280,7 +10280,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>45077</v>
+        <v>43682</v>
       </c>
       <c r="B200" t="s">
         <v>68</v>
@@ -10306,7 +10306,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>43721</v>
+        <v>43841</v>
       </c>
       <c r="B201" t="s">
         <v>20</v>
@@ -10332,7 +10332,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>44878</v>
+        <v>43859</v>
       </c>
       <c r="B202" t="s">
         <v>68</v>
@@ -10358,7 +10358,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>43626</v>
+        <v>44802</v>
       </c>
       <c r="B203" t="s">
         <v>20</v>
@@ -10384,7 +10384,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>44407</v>
+        <v>44908</v>
       </c>
       <c r="B204" t="s">
         <v>15</v>
@@ -10410,7 +10410,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>44322</v>
+        <v>43902</v>
       </c>
       <c r="B205" t="s">
         <v>20</v>
@@ -10436,7 +10436,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>44588</v>
+        <v>44278</v>
       </c>
       <c r="B206" t="s">
         <v>8</v>
@@ -10462,7 +10462,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>45023</v>
+        <v>44297</v>
       </c>
       <c r="B207" t="s">
         <v>42</v>
@@ -10488,7 +10488,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>44245</v>
+        <v>44902</v>
       </c>
       <c r="B208" t="s">
         <v>29</v>
@@ -10514,7 +10514,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>45202</v>
+        <v>43942</v>
       </c>
       <c r="B209" t="s">
         <v>8</v>
@@ -10540,7 +10540,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>45177</v>
+        <v>45048</v>
       </c>
       <c r="B210" t="s">
         <v>45</v>
@@ -10566,7 +10566,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>44194</v>
+        <v>43918</v>
       </c>
       <c r="B211" t="s">
         <v>29</v>
@@ -10592,7 +10592,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>43773</v>
+        <v>44703</v>
       </c>
       <c r="B212" t="s">
         <v>15</v>
@@ -10618,7 +10618,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>43543</v>
+        <v>45182</v>
       </c>
       <c r="B213" t="s">
         <v>20</v>
@@ -10644,7 +10644,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>44006</v>
+        <v>44235</v>
       </c>
       <c r="B214" t="s">
         <v>8</v>
@@ -10670,7 +10670,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>44986</v>
+        <v>45147</v>
       </c>
       <c r="B215" t="s">
         <v>29</v>
@@ -10696,7 +10696,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>44266</v>
+        <v>43520</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
@@ -10722,7 +10722,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>43883</v>
+        <v>43534</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
@@ -10748,7 +10748,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>44932</v>
+        <v>44920</v>
       </c>
       <c r="B218" t="s">
         <v>45</v>
@@ -10774,7 +10774,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>44521</v>
+        <v>44709</v>
       </c>
       <c r="B219" t="s">
         <v>20</v>
@@ -10800,7 +10800,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>44491</v>
+        <v>43538</v>
       </c>
       <c r="B220" t="s">
         <v>15</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>43827</v>
+        <v>44930</v>
       </c>
       <c r="B221" t="s">
         <v>20</v>
@@ -10852,7 +10852,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>44592</v>
+        <v>43712</v>
       </c>
       <c r="B222" t="s">
         <v>45</v>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>43490</v>
+        <v>44484</v>
       </c>
       <c r="B223" t="s">
         <v>20</v>
@@ -10904,7 +10904,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>43528</v>
+        <v>44772</v>
       </c>
       <c r="B224" t="s">
         <v>29</v>
@@ -10927,7 +10927,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>44159</v>
+        <v>43881</v>
       </c>
       <c r="B225" t="s">
         <v>29</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>43971</v>
+        <v>43688</v>
       </c>
       <c r="B226" t="s">
         <v>39</v>
@@ -10979,7 +10979,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>44865</v>
+        <v>43756</v>
       </c>
       <c r="B227" t="s">
         <v>20</v>
@@ -11005,7 +11005,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>44220</v>
+        <v>43910</v>
       </c>
       <c r="B228" t="s">
         <v>68</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>43667</v>
+        <v>44419</v>
       </c>
       <c r="B229" t="s">
         <v>68</v>
@@ -11057,7 +11057,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>43771</v>
+        <v>44738</v>
       </c>
       <c r="B230" t="s">
         <v>45</v>
@@ -11083,7 +11083,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>44469</v>
+        <v>44497</v>
       </c>
       <c r="B231" t="s">
         <v>15</v>
@@ -11109,7 +11109,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>44652</v>
+        <v>44919</v>
       </c>
       <c r="B232" t="s">
         <v>29</v>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>44772</v>
+        <v>45079</v>
       </c>
       <c r="B233" t="s">
         <v>29</v>
@@ -11161,7 +11161,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>44648</v>
+        <v>44655</v>
       </c>
       <c r="B234" t="s">
         <v>20</v>
@@ -11184,7 +11184,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>43982</v>
+        <v>44322</v>
       </c>
       <c r="B235" t="s">
         <v>39</v>
@@ -11210,7 +11210,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>45000</v>
+        <v>45047</v>
       </c>
       <c r="B236" t="s">
         <v>29</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>44437</v>
+        <v>45134</v>
       </c>
       <c r="B237" t="s">
         <v>39</v>
@@ -11262,7 +11262,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>44707</v>
+        <v>43568</v>
       </c>
       <c r="B238" t="s">
         <v>20</v>
@@ -11288,7 +11288,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>44475</v>
+        <v>44493</v>
       </c>
       <c r="B239" t="s">
         <v>8</v>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>44925</v>
+        <v>44220</v>
       </c>
       <c r="B240" t="s">
         <v>20</v>
@@ -11340,7 +11340,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>44612</v>
+        <v>43860</v>
       </c>
       <c r="B241" t="s">
         <v>20</v>
@@ -11366,7 +11366,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>43907</v>
+        <v>45007</v>
       </c>
       <c r="B242" t="s">
         <v>45</v>
@@ -11392,7 +11392,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>43670</v>
+        <v>45152</v>
       </c>
       <c r="B243" t="s">
         <v>29</v>
@@ -11418,7 +11418,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>44443</v>
+        <v>44354</v>
       </c>
       <c r="B244" t="s">
         <v>8</v>
@@ -11444,7 +11444,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>44540</v>
+        <v>44907</v>
       </c>
       <c r="B245" t="s">
         <v>29</v>
@@ -11470,7 +11470,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>44402</v>
+        <v>44348</v>
       </c>
       <c r="B246" t="s">
         <v>29</v>
@@ -11496,7 +11496,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>44426</v>
+        <v>43736</v>
       </c>
       <c r="B247" t="s">
         <v>45</v>
@@ -11522,7 +11522,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>44150</v>
+        <v>45076</v>
       </c>
       <c r="B248" t="s">
         <v>8</v>
@@ -11548,7 +11548,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>44597</v>
+        <v>43809</v>
       </c>
       <c r="B249" t="s">
         <v>45</v>
@@ -11574,7 +11574,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>44340</v>
+        <v>45025</v>
       </c>
       <c r="B250" t="s">
         <v>68</v>
@@ -11600,7 +11600,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>44663</v>
+        <v>45182</v>
       </c>
       <c r="B251" t="s">
         <v>39</v>
@@ -11626,7 +11626,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>43885</v>
+        <v>43949</v>
       </c>
       <c r="B252" t="s">
         <v>8</v>
@@ -11652,7 +11652,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>44950</v>
+        <v>44410</v>
       </c>
       <c r="B253" t="s">
         <v>42</v>
@@ -11678,7 +11678,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>43819</v>
+        <v>44939</v>
       </c>
       <c r="B254" t="s">
         <v>45</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>44859</v>
+        <v>44669</v>
       </c>
       <c r="B255" t="s">
         <v>39</v>
@@ -11727,7 +11727,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>44486</v>
+        <v>44795</v>
       </c>
       <c r="B256" t="s">
         <v>8</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>43995</v>
+        <v>44520</v>
       </c>
       <c r="B257" t="s">
         <v>8</v>
@@ -11779,7 +11779,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>45145</v>
+        <v>43608</v>
       </c>
       <c r="B258" t="s">
         <v>20</v>
@@ -11805,7 +11805,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>44777</v>
+        <v>44059</v>
       </c>
       <c r="B259" t="s">
         <v>45</v>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>44690</v>
+        <v>45106</v>
       </c>
       <c r="B260" t="s">
         <v>45</v>
@@ -11857,7 +11857,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>43744</v>
+        <v>44116</v>
       </c>
       <c r="B261" t="s">
         <v>39</v>
@@ -11883,7 +11883,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>45075</v>
+        <v>43876</v>
       </c>
       <c r="B262" t="s">
         <v>15</v>
@@ -11909,7 +11909,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>45042</v>
+        <v>44695</v>
       </c>
       <c r="B263" t="s">
         <v>42</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>45089</v>
+        <v>44722</v>
       </c>
       <c r="B264" t="s">
         <v>68</v>
@@ -11961,7 +11961,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>44713</v>
+        <v>45192</v>
       </c>
       <c r="B265" t="s">
         <v>42</v>
@@ -11987,7 +11987,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>45020</v>
+        <v>43605</v>
       </c>
       <c r="B266" t="s">
         <v>45</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>44540</v>
+        <v>43676</v>
       </c>
       <c r="B267" t="s">
         <v>15</v>
@@ -12039,7 +12039,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>43876</v>
+        <v>44229</v>
       </c>
       <c r="B268" t="s">
         <v>68</v>
@@ -12062,7 +12062,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>43984</v>
+        <v>43777</v>
       </c>
       <c r="B269" t="s">
         <v>68</v>
@@ -12088,7 +12088,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>43967</v>
+        <v>43929</v>
       </c>
       <c r="B270" t="s">
         <v>42</v>
@@ -12114,7 +12114,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>44949</v>
+        <v>44230</v>
       </c>
       <c r="B271" t="s">
         <v>15</v>
@@ -12140,7 +12140,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>44126</v>
+        <v>44988</v>
       </c>
       <c r="B272" t="s">
         <v>42</v>
@@ -12166,7 +12166,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>44539</v>
+        <v>43753</v>
       </c>
       <c r="B273" t="s">
         <v>29</v>
@@ -12192,7 +12192,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>43625</v>
+        <v>45212</v>
       </c>
       <c r="B274" t="s">
         <v>39</v>
@@ -12218,7 +12218,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>45049</v>
+        <v>44245</v>
       </c>
       <c r="B275" t="s">
         <v>29</v>
@@ -12244,7 +12244,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>43718</v>
+        <v>43687</v>
       </c>
       <c r="B276" t="s">
         <v>15</v>
@@ -12270,7 +12270,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>44958</v>
+        <v>44049</v>
       </c>
       <c r="B277" t="s">
         <v>15</v>
@@ -12296,7 +12296,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>44448</v>
+        <v>44331</v>
       </c>
       <c r="B278" t="s">
         <v>8</v>
@@ -12322,7 +12322,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>44387</v>
+        <v>43563</v>
       </c>
       <c r="B279" t="s">
         <v>39</v>
@@ -12348,7 +12348,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>44060</v>
+        <v>44463</v>
       </c>
       <c r="B280" t="s">
         <v>8</v>
@@ -12374,7 +12374,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>43733</v>
+        <v>43858</v>
       </c>
       <c r="B281" t="s">
         <v>15</v>
@@ -12400,7 +12400,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>43765</v>
+        <v>43470</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
@@ -12426,7 +12426,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>44137</v>
+        <v>44157</v>
       </c>
       <c r="B283" t="s">
         <v>45</v>
@@ -12452,7 +12452,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>44897</v>
+        <v>44913</v>
       </c>
       <c r="B284" t="s">
         <v>29</v>
@@ -12478,7 +12478,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>44048</v>
+        <v>44746</v>
       </c>
       <c r="B285" t="s">
         <v>68</v>
@@ -12504,7 +12504,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>43656</v>
+        <v>44911</v>
       </c>
       <c r="B286" t="s">
         <v>39</v>
@@ -12530,7 +12530,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>43733</v>
+        <v>44354</v>
       </c>
       <c r="B287" t="s">
         <v>20</v>
@@ -12556,7 +12556,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>44034</v>
+        <v>44527</v>
       </c>
       <c r="B288" t="s">
         <v>39</v>
@@ -12582,7 +12582,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>45040</v>
+        <v>44104</v>
       </c>
       <c r="B289" t="s">
         <v>42</v>
@@ -12608,7 +12608,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>44248</v>
+        <v>44141</v>
       </c>
       <c r="B290" t="s">
         <v>39</v>
@@ -12631,7 +12631,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>43554</v>
+        <v>44333</v>
       </c>
       <c r="B291" t="s">
         <v>8</v>
@@ -12657,7 +12657,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>44716</v>
+        <v>44698</v>
       </c>
       <c r="B292" t="s">
         <v>45</v>
@@ -12683,7 +12683,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>44639</v>
+        <v>43533</v>
       </c>
       <c r="B293" t="s">
         <v>39</v>
@@ -12709,7 +12709,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>44216</v>
+        <v>45223</v>
       </c>
       <c r="B294" t="s">
         <v>45</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>44562</v>
+        <v>43737</v>
       </c>
       <c r="B295" t="s">
         <v>45</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>43596</v>
+        <v>44688</v>
       </c>
       <c r="B296" t="s">
         <v>42</v>
@@ -12787,7 +12787,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>45056</v>
+        <v>44290</v>
       </c>
       <c r="B297" t="s">
         <v>68</v>
@@ -12813,7 +12813,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>43995</v>
+        <v>44642</v>
       </c>
       <c r="B298" t="s">
         <v>8</v>
@@ -12839,7 +12839,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>43956</v>
+        <v>45187</v>
       </c>
       <c r="B299" t="s">
         <v>68</v>
@@ -12865,7 +12865,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>43880</v>
+        <v>44353</v>
       </c>
       <c r="B300" t="s">
         <v>39</v>
@@ -12891,7 +12891,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>43527</v>
+        <v>45062</v>
       </c>
       <c r="B301" t="s">
         <v>39</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>44675</v>
+        <v>44809</v>
       </c>
       <c r="B302" t="s">
         <v>8</v>
@@ -12943,7 +12943,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>45032</v>
+        <v>44493</v>
       </c>
       <c r="B303" t="s">
         <v>39</v>
@@ -12969,7 +12969,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>43660</v>
+        <v>44325</v>
       </c>
       <c r="B304" t="s">
         <v>42</v>
@@ -12995,7 +12995,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>44050</v>
+        <v>45118</v>
       </c>
       <c r="B305" t="s">
         <v>42</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>43846</v>
+        <v>44421</v>
       </c>
       <c r="B306" t="s">
         <v>8</v>
@@ -13047,7 +13047,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>44056</v>
+        <v>45118</v>
       </c>
       <c r="B307" t="s">
         <v>42</v>
@@ -13073,7 +13073,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>44086</v>
+        <v>43500</v>
       </c>
       <c r="B308" t="s">
         <v>29</v>
@@ -13099,7 +13099,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>44218</v>
+        <v>44468</v>
       </c>
       <c r="B309" t="s">
         <v>15</v>
@@ -13125,7 +13125,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>43804</v>
+        <v>44493</v>
       </c>
       <c r="B310" t="s">
         <v>15</v>
@@ -13151,7 +13151,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>44274</v>
+        <v>44860</v>
       </c>
       <c r="B311" t="s">
         <v>15</v>
@@ -13177,7 +13177,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>43995</v>
+        <v>44480</v>
       </c>
       <c r="B312" t="s">
         <v>39</v>
@@ -13203,7 +13203,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>43671</v>
+        <v>44748</v>
       </c>
       <c r="B313" t="s">
         <v>68</v>
@@ -13229,7 +13229,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>43842</v>
+        <v>43632</v>
       </c>
       <c r="B314" t="s">
         <v>42</v>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>44441</v>
+        <v>44534</v>
       </c>
       <c r="B315" t="s">
         <v>29</v>
@@ -13278,7 +13278,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>44326</v>
+        <v>44316</v>
       </c>
       <c r="B316" t="s">
         <v>45</v>
@@ -13304,7 +13304,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>44783</v>
+        <v>44376</v>
       </c>
       <c r="B317" t="s">
         <v>42</v>
@@ -13330,7 +13330,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>44512</v>
+        <v>44180</v>
       </c>
       <c r="B318" t="s">
         <v>39</v>
@@ -13356,7 +13356,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>43991</v>
+        <v>44119</v>
       </c>
       <c r="B319" t="s">
         <v>68</v>
@@ -13382,7 +13382,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>44802</v>
+        <v>44112</v>
       </c>
       <c r="B320" t="s">
         <v>45</v>
@@ -13408,7 +13408,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>44195</v>
+        <v>44893</v>
       </c>
       <c r="B321" t="s">
         <v>39</v>
@@ -13434,7 +13434,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>44989</v>
+        <v>43831</v>
       </c>
       <c r="B322" t="s">
         <v>15</v>
@@ -13460,7 +13460,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>44447</v>
+        <v>44850</v>
       </c>
       <c r="B323" t="s">
         <v>68</v>
@@ -13486,7 +13486,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>44185</v>
+        <v>44612</v>
       </c>
       <c r="B324" t="s">
         <v>20</v>
@@ -13512,7 +13512,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>44263</v>
+        <v>44874</v>
       </c>
       <c r="B325" t="s">
         <v>68</v>
@@ -13538,7 +13538,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>43485</v>
+        <v>44619</v>
       </c>
       <c r="B326" t="s">
         <v>68</v>
@@ -13564,7 +13564,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>45051</v>
+        <v>44624</v>
       </c>
       <c r="B327" t="s">
         <v>29</v>
@@ -13590,7 +13590,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>44928</v>
+        <v>45006</v>
       </c>
       <c r="B328" t="s">
         <v>20</v>
@@ -13616,7 +13616,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>43813</v>
+        <v>44611</v>
       </c>
       <c r="B329" t="s">
         <v>29</v>
@@ -13639,7 +13639,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>43642</v>
+        <v>44137</v>
       </c>
       <c r="B330" t="s">
         <v>15</v>
@@ -13665,7 +13665,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>44389</v>
+        <v>44043</v>
       </c>
       <c r="B331" t="s">
         <v>8</v>
@@ -13691,7 +13691,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>44715</v>
+        <v>43818</v>
       </c>
       <c r="B332" t="s">
         <v>42</v>
@@ -13717,7 +13717,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>45203</v>
+        <v>44491</v>
       </c>
       <c r="B333" t="s">
         <v>29</v>
@@ -13743,7 +13743,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>44709</v>
+        <v>44252</v>
       </c>
       <c r="B334" t="s">
         <v>42</v>
@@ -13769,7 +13769,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>44916</v>
+        <v>44642</v>
       </c>
       <c r="B335" t="s">
         <v>15</v>
@@ -13795,7 +13795,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>44940</v>
+        <v>43552</v>
       </c>
       <c r="B336" t="s">
         <v>20</v>
@@ -13821,7 +13821,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>45098</v>
+        <v>44320</v>
       </c>
       <c r="B337" t="s">
         <v>39</v>
@@ -13847,7 +13847,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>43643</v>
+        <v>44037</v>
       </c>
       <c r="B338" t="s">
         <v>29</v>
@@ -13873,7 +13873,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>43723</v>
+        <v>45111</v>
       </c>
       <c r="B339" t="s">
         <v>45</v>
@@ -13899,7 +13899,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>44385</v>
+        <v>44424</v>
       </c>
       <c r="B340" t="s">
         <v>39</v>
@@ -13925,7 +13925,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>44054</v>
+        <v>44753</v>
       </c>
       <c r="B341" t="s">
         <v>45</v>
@@ -13951,7 +13951,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>44856</v>
+        <v>44699</v>
       </c>
       <c r="B342" t="s">
         <v>68</v>
@@ -13977,7 +13977,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>45170</v>
+        <v>44211</v>
       </c>
       <c r="B343" t="s">
         <v>15</v>
@@ -14003,7 +14003,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>44728</v>
+        <v>44621</v>
       </c>
       <c r="B344" t="s">
         <v>8</v>
@@ -14029,7 +14029,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>44509</v>
+        <v>44311</v>
       </c>
       <c r="B345" t="s">
         <v>20</v>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>44613</v>
+        <v>44712</v>
       </c>
       <c r="B346" t="s">
         <v>42</v>
@@ -14081,7 +14081,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>44973</v>
+        <v>43864</v>
       </c>
       <c r="B347" t="s">
         <v>45</v>
@@ -14107,7 +14107,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>45081</v>
+        <v>44179</v>
       </c>
       <c r="B348" t="s">
         <v>45</v>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>44727</v>
+        <v>43704</v>
       </c>
       <c r="B349" t="s">
         <v>8</v>
@@ -14159,7 +14159,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>43562</v>
+        <v>43775</v>
       </c>
       <c r="B350" t="s">
         <v>29</v>
@@ -14185,7 +14185,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>43799</v>
+        <v>43609</v>
       </c>
       <c r="B351" t="s">
         <v>39</v>
@@ -14211,7 +14211,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>44590</v>
+        <v>44363</v>
       </c>
       <c r="B352" t="s">
         <v>42</v>
@@ -14237,7 +14237,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>43691</v>
+        <v>44871</v>
       </c>
       <c r="B353" t="s">
         <v>42</v>
@@ -14263,7 +14263,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>43474</v>
+        <v>44300</v>
       </c>
       <c r="B354" t="s">
         <v>20</v>
@@ -14289,7 +14289,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>44748</v>
+        <v>44257</v>
       </c>
       <c r="B355" t="s">
         <v>68</v>
@@ -14315,7 +14315,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>43830</v>
+        <v>43476</v>
       </c>
       <c r="B356" t="s">
         <v>42</v>
@@ -14341,7 +14341,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>43621</v>
+        <v>45056</v>
       </c>
       <c r="B357" t="s">
         <v>8</v>
@@ -14367,7 +14367,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>44725</v>
+        <v>43759</v>
       </c>
       <c r="B358" t="s">
         <v>68</v>
@@ -14393,7 +14393,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>44094</v>
+        <v>44100</v>
       </c>
       <c r="B359" t="s">
         <v>68</v>
@@ -14419,7 +14419,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>44044</v>
+        <v>43633</v>
       </c>
       <c r="B360" t="s">
         <v>39</v>
@@ -14445,7 +14445,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B361" t="s">
         <v>20</v>
@@ -14471,7 +14471,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>44349</v>
+        <v>43661</v>
       </c>
       <c r="B362" t="s">
         <v>8</v>
@@ -14497,7 +14497,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>43563</v>
+        <v>43716</v>
       </c>
       <c r="B363" t="s">
         <v>39</v>
@@ -14523,7 +14523,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>44617</v>
+        <v>44378</v>
       </c>
       <c r="B364" t="s">
         <v>8</v>
@@ -14549,7 +14549,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>45164</v>
+        <v>44656</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -14575,7 +14575,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>44701</v>
+        <v>43992</v>
       </c>
       <c r="B366" t="s">
         <v>20</v>
@@ -14601,7 +14601,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>44892</v>
+        <v>43956</v>
       </c>
       <c r="B367" t="s">
         <v>45</v>
@@ -14627,7 +14627,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>44872</v>
+        <v>43803</v>
       </c>
       <c r="B368" t="s">
         <v>8</v>
@@ -14653,7 +14653,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>43972</v>
+        <v>43628</v>
       </c>
       <c r="B369" t="s">
         <v>42</v>
@@ -14679,7 +14679,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>43505</v>
+        <v>44967</v>
       </c>
       <c r="B370" t="s">
         <v>29</v>
@@ -14705,7 +14705,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>45055</v>
+        <v>43714</v>
       </c>
       <c r="B371" t="s">
         <v>15</v>
@@ -14728,7 +14728,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>44273</v>
+        <v>44641</v>
       </c>
       <c r="B372" t="s">
         <v>8</v>
@@ -14754,7 +14754,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>45054</v>
+        <v>44511</v>
       </c>
       <c r="B373" t="s">
         <v>29</v>
@@ -14780,7 +14780,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>44985</v>
+        <v>44400</v>
       </c>
       <c r="B374" t="s">
         <v>29</v>
@@ -14806,7 +14806,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>44064</v>
+        <v>44402</v>
       </c>
       <c r="B375" t="s">
         <v>20</v>
@@ -14832,7 +14832,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>45034</v>
+        <v>44326</v>
       </c>
       <c r="B376" t="s">
         <v>42</v>
@@ -14858,7 +14858,7 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>44493</v>
+        <v>44396</v>
       </c>
       <c r="B377" t="s">
         <v>39</v>
@@ -14884,7 +14884,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>44006</v>
+        <v>44235</v>
       </c>
       <c r="B378" t="s">
         <v>29</v>
@@ -14910,7 +14910,7 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>43717</v>
+        <v>43515</v>
       </c>
       <c r="B379" t="s">
         <v>45</v>
@@ -14936,7 +14936,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>44877</v>
+        <v>44235</v>
       </c>
       <c r="B380" t="s">
         <v>45</v>
@@ -14962,7 +14962,7 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>44889</v>
+        <v>44311</v>
       </c>
       <c r="B381" t="s">
         <v>39</v>
@@ -14988,7 +14988,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>44450</v>
+        <v>45036</v>
       </c>
       <c r="B382" t="s">
         <v>20</v>
@@ -15014,7 +15014,7 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>44819</v>
+        <v>45008</v>
       </c>
       <c r="B383" t="s">
         <v>8</v>
@@ -15040,7 +15040,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>43535</v>
+        <v>43920</v>
       </c>
       <c r="B384" t="s">
         <v>45</v>
@@ -15066,7 +15066,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>44694</v>
+        <v>44921</v>
       </c>
       <c r="B385" t="s">
         <v>15</v>
@@ -15092,7 +15092,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>44938</v>
+        <v>44525</v>
       </c>
       <c r="B386" t="s">
         <v>8</v>
@@ -15118,7 +15118,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>43515</v>
+        <v>43654</v>
       </c>
       <c r="B387" t="s">
         <v>15</v>
@@ -15144,7 +15144,7 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>43874</v>
+        <v>44956</v>
       </c>
       <c r="B388" t="s">
         <v>39</v>
@@ -15170,7 +15170,7 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>44354</v>
+        <v>44072</v>
       </c>
       <c r="B389" t="s">
         <v>15</v>
@@ -15196,7 +15196,7 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>44851</v>
+        <v>44194</v>
       </c>
       <c r="B390" t="s">
         <v>42</v>
@@ -15222,7 +15222,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>45118</v>
+        <v>44312</v>
       </c>
       <c r="B391" t="s">
         <v>29</v>
@@ -15248,7 +15248,7 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>43543</v>
+        <v>44523</v>
       </c>
       <c r="B392" t="s">
         <v>8</v>
@@ -15274,7 +15274,7 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>44271</v>
+        <v>44404</v>
       </c>
       <c r="B393" t="s">
         <v>29</v>
@@ -15297,7 +15297,7 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>44333</v>
+        <v>43806</v>
       </c>
       <c r="B394" t="s">
         <v>15</v>
@@ -15323,7 +15323,7 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>43511</v>
+        <v>43800</v>
       </c>
       <c r="B395" t="s">
         <v>8</v>
@@ -15349,7 +15349,7 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>44450</v>
+        <v>45036</v>
       </c>
       <c r="B396" t="s">
         <v>39</v>
@@ -15375,7 +15375,7 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>44564</v>
+        <v>44716</v>
       </c>
       <c r="B397" t="s">
         <v>20</v>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>43924</v>
+        <v>43524</v>
       </c>
       <c r="B398" t="s">
         <v>8</v>
@@ -15424,7 +15424,7 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>43926</v>
+        <v>43532</v>
       </c>
       <c r="B399" t="s">
         <v>45</v>
@@ -15450,7 +15450,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>43908</v>
+        <v>43766</v>
       </c>
       <c r="B400" t="s">
         <v>45</v>
@@ -15476,7 +15476,7 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>44096</v>
+        <v>44704</v>
       </c>
       <c r="B401" t="s">
         <v>15</v>
@@ -15502,7 +15502,7 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>43817</v>
+        <v>44392</v>
       </c>
       <c r="B402" t="s">
         <v>45</v>
@@ -15528,7 +15528,7 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>44389</v>
+        <v>44204</v>
       </c>
       <c r="B403" t="s">
         <v>8</v>
@@ -15554,7 +15554,7 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>44938</v>
+        <v>44525</v>
       </c>
       <c r="B404" t="s">
         <v>15</v>
@@ -15580,7 +15580,7 @@
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>43804</v>
+        <v>43885</v>
       </c>
       <c r="B405" t="s">
         <v>20</v>
@@ -15606,7 +15606,7 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>44709</v>
+        <v>43977</v>
       </c>
       <c r="B406" t="s">
         <v>39</v>
@@ -15632,7 +15632,7 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>44424</v>
+        <v>44302</v>
       </c>
       <c r="B407" t="s">
         <v>39</v>
@@ -15658,7 +15658,7 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>44304</v>
+        <v>43883</v>
       </c>
       <c r="B408" t="s">
         <v>45</v>
@@ -15684,7 +15684,7 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>44784</v>
+        <v>43752</v>
       </c>
       <c r="B409" t="s">
         <v>39</v>
@@ -15710,7 +15710,7 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>44527</v>
+        <v>44307</v>
       </c>
       <c r="B410" t="s">
         <v>45</v>
@@ -15736,7 +15736,7 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>44883</v>
+        <v>43555</v>
       </c>
       <c r="B411" t="s">
         <v>20</v>
@@ -15762,7 +15762,7 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>43919</v>
+        <v>44566</v>
       </c>
       <c r="B412" t="s">
         <v>39</v>
@@ -15788,7 +15788,7 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>44045</v>
+        <v>44691</v>
       </c>
       <c r="B413" t="s">
         <v>42</v>
@@ -15814,7 +15814,7 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>44742</v>
+        <v>43504</v>
       </c>
       <c r="B414" t="s">
         <v>8</v>
@@ -15840,7 +15840,7 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>44508</v>
+        <v>45008</v>
       </c>
       <c r="B415" t="s">
         <v>8</v>
@@ -15866,7 +15866,7 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>44075</v>
+        <v>43495</v>
       </c>
       <c r="B416" t="s">
         <v>45</v>
@@ -15892,7 +15892,7 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>43968</v>
+        <v>44657</v>
       </c>
       <c r="B417" t="s">
         <v>29</v>
@@ -15918,7 +15918,7 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>45167</v>
+        <v>43655</v>
       </c>
       <c r="B418" t="s">
         <v>42</v>
@@ -15944,7 +15944,7 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>44280</v>
+        <v>44655</v>
       </c>
       <c r="B419" t="s">
         <v>42</v>
@@ -15970,7 +15970,7 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>44075</v>
+        <v>43495</v>
       </c>
       <c r="B420" t="s">
         <v>8</v>
@@ -15996,7 +15996,7 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>43704</v>
+        <v>44650</v>
       </c>
       <c r="B421" t="s">
         <v>29</v>
@@ -16022,7 +16022,7 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>45030</v>
+        <v>43869</v>
       </c>
       <c r="B422" t="s">
         <v>15</v>
@@ -16048,7 +16048,7 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>45050</v>
+        <v>44786</v>
       </c>
       <c r="B423" t="s">
         <v>39</v>
@@ -16074,7 +16074,7 @@
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>43564</v>
+        <v>44218</v>
       </c>
       <c r="B424" t="s">
         <v>68</v>
@@ -16100,7 +16100,7 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>45134</v>
+        <v>43772</v>
       </c>
       <c r="B425" t="s">
         <v>20</v>
@@ -16126,7 +16126,7 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>44865</v>
+        <v>43727</v>
       </c>
       <c r="B426" t="s">
         <v>20</v>
@@ -16152,7 +16152,7 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>43858</v>
+        <v>45131</v>
       </c>
       <c r="B427" t="s">
         <v>39</v>
@@ -16178,7 +16178,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>44401</v>
+        <v>43784</v>
       </c>
       <c r="B428" t="s">
         <v>39</v>
@@ -16204,7 +16204,7 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>45120</v>
+        <v>43475</v>
       </c>
       <c r="B429" t="s">
         <v>42</v>
@@ -16230,7 +16230,7 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>44554</v>
+        <v>43616</v>
       </c>
       <c r="B430" t="s">
         <v>29</v>
@@ -16256,7 +16256,7 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>44204</v>
+        <v>45041</v>
       </c>
       <c r="B431" t="s">
         <v>42</v>
@@ -16282,7 +16282,7 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>45023</v>
+        <v>44540</v>
       </c>
       <c r="B432" t="s">
         <v>45</v>
@@ -16305,7 +16305,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>44861</v>
+        <v>43747</v>
       </c>
       <c r="B433" t="s">
         <v>20</v>
@@ -16331,7 +16331,7 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>43596</v>
+        <v>45105</v>
       </c>
       <c r="B434" t="s">
         <v>20</v>
@@ -16357,7 +16357,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>43961</v>
+        <v>43816</v>
       </c>
       <c r="B435" t="s">
         <v>8</v>
@@ -16383,7 +16383,7 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>44498</v>
+        <v>44125</v>
       </c>
       <c r="B436" t="s">
         <v>20</v>
@@ -16409,7 +16409,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>44378</v>
+        <v>44003</v>
       </c>
       <c r="B437" t="s">
         <v>8</v>
@@ -16435,7 +16435,7 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>44984</v>
+        <v>43469</v>
       </c>
       <c r="B438" t="s">
         <v>45</v>
@@ -16461,7 +16461,7 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>44816</v>
+        <v>44777</v>
       </c>
       <c r="B439" t="s">
         <v>20</v>
@@ -16487,7 +16487,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>44940</v>
+        <v>44514</v>
       </c>
       <c r="B440" t="s">
         <v>8</v>
@@ -16510,7 +16510,7 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>44881</v>
+        <v>44719</v>
       </c>
       <c r="B441" t="s">
         <v>15</v>
@@ -16536,7 +16536,7 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>44604</v>
+        <v>43929</v>
       </c>
       <c r="B442" t="s">
         <v>42</v>
@@ -16562,7 +16562,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>43806</v>
+        <v>44186</v>
       </c>
       <c r="B443" t="s">
         <v>15</v>
@@ -16588,7 +16588,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>43955</v>
+        <v>43771</v>
       </c>
       <c r="B444" t="s">
         <v>42</v>
@@ -16614,7 +16614,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>45133</v>
+        <v>44471</v>
       </c>
       <c r="B445" t="s">
         <v>8</v>
@@ -16640,7 +16640,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>44581</v>
+        <v>43883</v>
       </c>
       <c r="B446" t="s">
         <v>42</v>
@@ -16666,7 +16666,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>43558</v>
+        <v>44990</v>
       </c>
       <c r="B447" t="s">
         <v>42</v>
@@ -16692,7 +16692,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>45081</v>
+        <v>45151</v>
       </c>
       <c r="B448" t="s">
         <v>15</v>
@@ -16718,7 +16718,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>44298</v>
+        <v>44779</v>
       </c>
       <c r="B449" t="s">
         <v>29</v>
@@ -16744,7 +16744,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>43512</v>
+        <v>44048</v>
       </c>
       <c r="B450" t="s">
         <v>39</v>
@@ -16770,7 +16770,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>43538</v>
+        <v>44435</v>
       </c>
       <c r="B451" t="s">
         <v>15</v>
@@ -16796,7 +16796,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>44128</v>
+        <v>43642</v>
       </c>
       <c r="B452" t="s">
         <v>68</v>
@@ -16822,7 +16822,7 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>44404</v>
+        <v>43946</v>
       </c>
       <c r="B453" t="s">
         <v>45</v>
@@ -16848,7 +16848,7 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>44627</v>
+        <v>44725</v>
       </c>
       <c r="B454" t="s">
         <v>39</v>
@@ -16874,7 +16874,7 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>44178</v>
+        <v>44390</v>
       </c>
       <c r="B455" t="s">
         <v>39</v>
@@ -16900,7 +16900,7 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>44427</v>
+        <v>43652</v>
       </c>
       <c r="B456" t="s">
         <v>42</v>
@@ -16926,7 +16926,7 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>44708</v>
+        <v>43498</v>
       </c>
       <c r="B457" t="s">
         <v>68</v>
@@ -16952,7 +16952,7 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>43911</v>
+        <v>43944</v>
       </c>
       <c r="B458" t="s">
         <v>20</v>
@@ -16978,7 +16978,7 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>43713</v>
+        <v>44789</v>
       </c>
       <c r="B459" t="s">
         <v>29</v>
@@ -17004,7 +17004,7 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>44464</v>
+        <v>44630</v>
       </c>
       <c r="B460" t="s">
         <v>42</v>
@@ -17030,7 +17030,7 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>44221</v>
+        <v>44672</v>
       </c>
       <c r="B461" t="s">
         <v>8</v>
@@ -17056,7 +17056,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>43689</v>
+        <v>44993</v>
       </c>
       <c r="B462" t="s">
         <v>15</v>
@@ -17082,7 +17082,7 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>43898</v>
+        <v>45126</v>
       </c>
       <c r="B463" t="s">
         <v>42</v>
@@ -17108,7 +17108,7 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>43890</v>
+        <v>44108</v>
       </c>
       <c r="B464" t="s">
         <v>39</v>
@@ -17134,7 +17134,7 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>45052</v>
+        <v>44280</v>
       </c>
       <c r="B465" t="s">
         <v>39</v>
@@ -17160,7 +17160,7 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>44360</v>
+        <v>45087</v>
       </c>
       <c r="B466" t="s">
         <v>42</v>
@@ -17186,7 +17186,7 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>44520</v>
+        <v>44364</v>
       </c>
       <c r="B467" t="s">
         <v>20</v>
@@ -17212,7 +17212,7 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>45162</v>
+        <v>44910</v>
       </c>
       <c r="B468" t="s">
         <v>42</v>
@@ -17238,7 +17238,7 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>44968</v>
+        <v>45227</v>
       </c>
       <c r="B469" t="s">
         <v>42</v>
@@ -17264,7 +17264,7 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>45143</v>
+        <v>43703</v>
       </c>
       <c r="B470" t="s">
         <v>15</v>
@@ -17290,7 +17290,7 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>43705</v>
+        <v>44522</v>
       </c>
       <c r="B471" t="s">
         <v>45</v>
@@ -17316,7 +17316,7 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>44744</v>
+        <v>43605</v>
       </c>
       <c r="B472" t="s">
         <v>15</v>
@@ -17342,7 +17342,7 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>44942</v>
+        <v>44196</v>
       </c>
       <c r="B473" t="s">
         <v>39</v>
@@ -17365,7 +17365,7 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>44561</v>
+        <v>44404</v>
       </c>
       <c r="B474" t="s">
         <v>39</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>43705</v>
+        <v>44800</v>
       </c>
       <c r="B475" t="s">
         <v>39</v>
@@ -17417,7 +17417,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>44789</v>
+        <v>43492</v>
       </c>
       <c r="B476" t="s">
         <v>8</v>
@@ -17443,7 +17443,7 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>44009</v>
+        <v>44609</v>
       </c>
       <c r="B477" t="s">
         <v>20</v>
@@ -17469,7 +17469,7 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>44515</v>
+        <v>43736</v>
       </c>
       <c r="B478" t="s">
         <v>68</v>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>44744</v>
+        <v>44535</v>
       </c>
       <c r="B479" t="s">
         <v>8</v>
@@ -17521,7 +17521,7 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>44728</v>
+        <v>44697</v>
       </c>
       <c r="B480" t="s">
         <v>15</v>
@@ -17547,7 +17547,7 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>43957</v>
+        <v>44275</v>
       </c>
       <c r="B481" t="s">
         <v>42</v>
@@ -17573,7 +17573,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>43973</v>
+        <v>44572</v>
       </c>
       <c r="B482" t="s">
         <v>20</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>45059</v>
+        <v>45195</v>
       </c>
       <c r="B483" t="s">
         <v>39</v>
@@ -17625,7 +17625,7 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>44712</v>
+        <v>44583</v>
       </c>
       <c r="B484" t="s">
         <v>45</v>
@@ -17651,7 +17651,7 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>45180</v>
+        <v>44078</v>
       </c>
       <c r="B485" t="s">
         <v>29</v>
@@ -17677,7 +17677,7 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>44474</v>
+        <v>44210</v>
       </c>
       <c r="B486" t="s">
         <v>8</v>
@@ -17703,7 +17703,7 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>43739</v>
+        <v>44598</v>
       </c>
       <c r="B487" t="s">
         <v>45</v>
@@ -17729,7 +17729,7 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>43575</v>
+        <v>44317</v>
       </c>
       <c r="B488" t="s">
         <v>29</v>
@@ -17755,7 +17755,7 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>43982</v>
+        <v>43798</v>
       </c>
       <c r="B489" t="s">
         <v>45</v>
@@ -17778,7 +17778,7 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>43907</v>
+        <v>43523</v>
       </c>
       <c r="B490" t="s">
         <v>68</v>
@@ -17804,7 +17804,7 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>44594</v>
+        <v>45194</v>
       </c>
       <c r="B491" t="s">
         <v>42</v>
@@ -17830,7 +17830,7 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>44386</v>
+        <v>43578</v>
       </c>
       <c r="B492" t="s">
         <v>8</v>
@@ -17856,7 +17856,7 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>43980</v>
+        <v>44781</v>
       </c>
       <c r="B493" t="s">
         <v>15</v>
@@ -17882,7 +17882,7 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>45110</v>
+        <v>44865</v>
       </c>
       <c r="B494" t="s">
         <v>45</v>
@@ -17908,7 +17908,7 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>44757</v>
+        <v>43872</v>
       </c>
       <c r="B495" t="s">
         <v>45</v>
@@ -17934,7 +17934,7 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>43903</v>
+        <v>44639</v>
       </c>
       <c r="B496" t="s">
         <v>39</v>
@@ -17960,7 +17960,7 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>44664</v>
+        <v>44856</v>
       </c>
       <c r="B497" t="s">
         <v>39</v>
@@ -17986,7 +17986,7 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>44140</v>
+        <v>44306</v>
       </c>
       <c r="B498" t="s">
         <v>15</v>
@@ -18012,7 +18012,7 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>45078</v>
+        <v>45007</v>
       </c>
       <c r="B499" t="s">
         <v>68</v>
@@ -18038,7 +18038,7 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>43785</v>
+        <v>43469</v>
       </c>
       <c r="B500" t="s">
         <v>45</v>
@@ -18064,7 +18064,7 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>44588</v>
+        <v>44669</v>
       </c>
       <c r="B501" t="s">
         <v>29</v>
@@ -18090,7 +18090,7 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>45175</v>
+        <v>44849</v>
       </c>
       <c r="B502" t="s">
         <v>45</v>
@@ -18116,7 +18116,7 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>44025</v>
+        <v>44678</v>
       </c>
       <c r="B503" t="s">
         <v>39</v>
@@ -18142,7 +18142,7 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>43576</v>
+        <v>45194</v>
       </c>
       <c r="B504" t="s">
         <v>42</v>
@@ -18168,7 +18168,7 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>44445</v>
+        <v>43653</v>
       </c>
       <c r="B505" t="s">
         <v>29</v>
@@ -18194,7 +18194,7 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>44902</v>
+        <v>44757</v>
       </c>
       <c r="B506" t="s">
         <v>29</v>
@@ -18220,7 +18220,7 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>44604</v>
+        <v>43929</v>
       </c>
       <c r="B507" t="s">
         <v>68</v>
@@ -18246,7 +18246,7 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>45174</v>
+        <v>44948</v>
       </c>
       <c r="B508" t="s">
         <v>15</v>
@@ -18272,7 +18272,7 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>44815</v>
+        <v>43698</v>
       </c>
       <c r="B509" t="s">
         <v>20</v>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>44060</v>
+        <v>44463</v>
       </c>
       <c r="B510" t="s">
         <v>15</v>
@@ -18324,7 +18324,7 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>44809</v>
+        <v>43637</v>
       </c>
       <c r="B511" t="s">
         <v>45</v>
@@ -18350,7 +18350,7 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>44033</v>
+        <v>44578</v>
       </c>
       <c r="B512" t="s">
         <v>68</v>
@@ -18376,7 +18376,7 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>44227</v>
+        <v>45071</v>
       </c>
       <c r="B513" t="s">
         <v>20</v>
@@ -18402,7 +18402,7 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>44732</v>
+        <v>45034</v>
       </c>
       <c r="B514" t="s">
         <v>29</v>
@@ -18428,7 +18428,7 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>43705</v>
+        <v>44947</v>
       </c>
       <c r="B515" t="s">
         <v>15</v>
@@ -18454,7 +18454,7 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>44282</v>
+        <v>44051</v>
       </c>
       <c r="B516" t="s">
         <v>42</v>
@@ -18480,7 +18480,7 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>44821</v>
+        <v>45231</v>
       </c>
       <c r="B517" t="s">
         <v>29</v>
@@ -18506,7 +18506,7 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>44109</v>
+        <v>43639</v>
       </c>
       <c r="B518" t="s">
         <v>15</v>
@@ -18532,7 +18532,7 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>45043</v>
+        <v>44563</v>
       </c>
       <c r="B519" t="s">
         <v>42</v>
@@ -18558,7 +18558,7 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>44524</v>
+        <v>44255</v>
       </c>
       <c r="B520" t="s">
         <v>68</v>
@@ -18584,7 +18584,7 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>44361</v>
+        <v>45079</v>
       </c>
       <c r="B521" t="s">
         <v>29</v>
@@ -18610,7 +18610,7 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>44573</v>
+        <v>44769</v>
       </c>
       <c r="B522" t="s">
         <v>45</v>
@@ -18636,7 +18636,7 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>44554</v>
+        <v>44220</v>
       </c>
       <c r="B523" t="s">
         <v>68</v>
@@ -18662,7 +18662,7 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>43532</v>
+        <v>44911</v>
       </c>
       <c r="B524" t="s">
         <v>45</v>
@@ -18688,7 +18688,7 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>44584</v>
+        <v>43809</v>
       </c>
       <c r="B525" t="s">
         <v>39</v>
@@ -18714,7 +18714,7 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>45097</v>
+        <v>45050</v>
       </c>
       <c r="B526" t="s">
         <v>20</v>
@@ -18740,7 +18740,7 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>44851</v>
+        <v>43929</v>
       </c>
       <c r="B527" t="s">
         <v>29</v>
@@ -18766,7 +18766,7 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>43786</v>
+        <v>44540</v>
       </c>
       <c r="B528" t="s">
         <v>20</v>
@@ -18792,7 +18792,7 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>45166</v>
+        <v>45139</v>
       </c>
       <c r="B529" t="s">
         <v>68</v>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>44900</v>
+        <v>44489</v>
       </c>
       <c r="B530" t="s">
         <v>45</v>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>45167</v>
+        <v>43655</v>
       </c>
       <c r="B531" t="s">
         <v>8</v>
@@ -18867,7 +18867,7 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>43964</v>
+        <v>44593</v>
       </c>
       <c r="B532" t="s">
         <v>8</v>
@@ -18893,7 +18893,7 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>44685</v>
+        <v>43743</v>
       </c>
       <c r="B533" t="s">
         <v>42</v>
@@ -18919,7 +18919,7 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>44719</v>
+        <v>43832</v>
       </c>
       <c r="B534" t="s">
         <v>39</v>
@@ -18945,7 +18945,7 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>44752</v>
+        <v>43639</v>
       </c>
       <c r="B535" t="s">
         <v>20</v>
@@ -18971,7 +18971,7 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>43756</v>
+        <v>43648</v>
       </c>
       <c r="B536" t="s">
         <v>29</v>
@@ -18994,7 +18994,7 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>44158</v>
+        <v>45079</v>
       </c>
       <c r="B537" t="s">
         <v>39</v>
@@ -19020,7 +19020,7 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>45061</v>
+        <v>45186</v>
       </c>
       <c r="B538" t="s">
         <v>39</v>
@@ -19046,7 +19046,7 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>44986</v>
+        <v>43758</v>
       </c>
       <c r="B539" t="s">
         <v>45</v>
@@ -19072,7 +19072,7 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>44712</v>
+        <v>43640</v>
       </c>
       <c r="B540" t="s">
         <v>42</v>
@@ -19098,7 +19098,7 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>45087</v>
+        <v>43482</v>
       </c>
       <c r="B541" t="s">
         <v>68</v>
@@ -19124,7 +19124,7 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>44979</v>
+        <v>43748</v>
       </c>
       <c r="B542" t="s">
         <v>45</v>
@@ -19150,7 +19150,7 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>43850</v>
+        <v>44549</v>
       </c>
       <c r="B543" t="s">
         <v>68</v>
@@ -19176,7 +19176,7 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
-        <v>44965</v>
+        <v>44024</v>
       </c>
       <c r="B544" t="s">
         <v>20</v>
@@ -19202,7 +19202,7 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
-        <v>43546</v>
+        <v>44510</v>
       </c>
       <c r="B545" t="s">
         <v>45</v>
@@ -19228,7 +19228,7 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
-        <v>43874</v>
+        <v>44563</v>
       </c>
       <c r="B546" t="s">
         <v>68</v>
@@ -19251,7 +19251,7 @@
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>45056</v>
+        <v>43636</v>
       </c>
       <c r="B547" t="s">
         <v>45</v>
@@ -19277,7 +19277,7 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>44052</v>
+        <v>43727</v>
       </c>
       <c r="B548" t="s">
         <v>68</v>
@@ -19303,7 +19303,7 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
-        <v>43578</v>
+        <v>45197</v>
       </c>
       <c r="B549" t="s">
         <v>15</v>
@@ -19329,7 +19329,7 @@
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
-        <v>44660</v>
+        <v>44360</v>
       </c>
       <c r="B550" t="s">
         <v>20</v>
@@ -19355,7 +19355,7 @@
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
-        <v>43709</v>
+        <v>44585</v>
       </c>
       <c r="B551" t="s">
         <v>29</v>
@@ -19381,7 +19381,7 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>43500</v>
+        <v>44660</v>
       </c>
       <c r="B552" t="s">
         <v>15</v>
@@ -19407,7 +19407,7 @@
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>44171</v>
+        <v>44829</v>
       </c>
       <c r="B553" t="s">
         <v>8</v>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
-        <v>44026</v>
+        <v>43615</v>
       </c>
       <c r="B554" t="s">
         <v>20</v>
@@ -19459,7 +19459,7 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
-        <v>44824</v>
+        <v>44097</v>
       </c>
       <c r="B555" t="s">
         <v>39</v>
@@ -19485,7 +19485,7 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
-        <v>43531</v>
+        <v>43804</v>
       </c>
       <c r="B556" t="s">
         <v>29</v>
@@ -19511,7 +19511,7 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
-        <v>45072</v>
+        <v>44550</v>
       </c>
       <c r="B557" t="s">
         <v>20</v>
@@ -19537,7 +19537,7 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
-        <v>43884</v>
+        <v>44350</v>
       </c>
       <c r="B558" t="s">
         <v>15</v>
@@ -19563,7 +19563,7 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
-        <v>44932</v>
+        <v>43917</v>
       </c>
       <c r="B559" t="s">
         <v>15</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
-        <v>44190</v>
+        <v>43787</v>
       </c>
       <c r="B560" t="s">
         <v>39</v>
@@ -19612,7 +19612,7 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
-        <v>43799</v>
+        <v>43609</v>
       </c>
       <c r="B561" t="s">
         <v>68</v>
@@ -19638,7 +19638,7 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
-        <v>43660</v>
+        <v>44325</v>
       </c>
       <c r="B562" t="s">
         <v>20</v>
@@ -19664,7 +19664,7 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
-        <v>44367</v>
+        <v>44256</v>
       </c>
       <c r="B563" t="s">
         <v>15</v>
@@ -19690,7 +19690,7 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
-        <v>44201</v>
+        <v>43897</v>
       </c>
       <c r="B564" t="s">
         <v>39</v>
@@ -19713,7 +19713,7 @@
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
-        <v>44032</v>
+        <v>43963</v>
       </c>
       <c r="B565" t="s">
         <v>39</v>
@@ -19739,7 +19739,7 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
-        <v>44889</v>
+        <v>43986</v>
       </c>
       <c r="B566" t="s">
         <v>29</v>
@@ -19762,7 +19762,7 @@
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
-        <v>44783</v>
+        <v>44376</v>
       </c>
       <c r="B567" t="s">
         <v>8</v>
@@ -19788,7 +19788,7 @@
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
-        <v>44702</v>
+        <v>44617</v>
       </c>
       <c r="B568" t="s">
         <v>15</v>
@@ -19814,7 +19814,7 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
-        <v>44633</v>
+        <v>44395</v>
       </c>
       <c r="B569" t="s">
         <v>15</v>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
-        <v>44209</v>
+        <v>45156</v>
       </c>
       <c r="B570" t="s">
         <v>20</v>
@@ -19866,7 +19866,7 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
-        <v>44974</v>
+        <v>44901</v>
       </c>
       <c r="B571" t="s">
         <v>42</v>
@@ -19892,7 +19892,7 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
-        <v>44499</v>
+        <v>44864</v>
       </c>
       <c r="B572" t="s">
         <v>8</v>
@@ -19918,7 +19918,7 @@
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
-        <v>44751</v>
+        <v>44359</v>
       </c>
       <c r="B573" t="s">
         <v>42</v>
@@ -19944,7 +19944,7 @@
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
-        <v>43633</v>
+        <v>44900</v>
       </c>
       <c r="B574" t="s">
         <v>42</v>
@@ -19970,7 +19970,7 @@
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
-        <v>43793</v>
+        <v>44227</v>
       </c>
       <c r="B575" t="s">
         <v>42</v>
@@ -19996,7 +19996,7 @@
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
-        <v>43912</v>
+        <v>44625</v>
       </c>
       <c r="B576" t="s">
         <v>29</v>
@@ -20022,7 +20022,7 @@
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
-        <v>44572</v>
+        <v>44594</v>
       </c>
       <c r="B577" t="s">
         <v>45</v>
@@ -20048,7 +20048,7 @@
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
-        <v>43709</v>
+        <v>43901</v>
       </c>
       <c r="B578" t="s">
         <v>68</v>
@@ -20074,7 +20074,7 @@
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
-        <v>43508</v>
+        <v>44576</v>
       </c>
       <c r="B579" t="s">
         <v>68</v>
@@ -20100,7 +20100,7 @@
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
-        <v>44396</v>
+        <v>44070</v>
       </c>
       <c r="B580" t="s">
         <v>20</v>
@@ -20126,7 +20126,7 @@
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
-        <v>43884</v>
+        <v>44416</v>
       </c>
       <c r="B581" t="s">
         <v>15</v>
@@ -20149,7 +20149,7 @@
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
-        <v>44800</v>
+        <v>44516</v>
       </c>
       <c r="B582" t="s">
         <v>20</v>
@@ -20175,7 +20175,7 @@
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
-        <v>44918</v>
+        <v>45049</v>
       </c>
       <c r="B583" t="s">
         <v>20</v>
@@ -20201,7 +20201,7 @@
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
-        <v>43479</v>
+        <v>43922</v>
       </c>
       <c r="B584" t="s">
         <v>42</v>
@@ -20227,7 +20227,7 @@
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
-        <v>43496</v>
+        <v>45018</v>
       </c>
       <c r="B585" t="s">
         <v>42</v>
@@ -20253,7 +20253,7 @@
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
-        <v>44073</v>
+        <v>44817</v>
       </c>
       <c r="B586" t="s">
         <v>39</v>
@@ -20279,7 +20279,7 @@
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
-        <v>43527</v>
+        <v>44519</v>
       </c>
       <c r="B587" t="s">
         <v>39</v>
@@ -20302,7 +20302,7 @@
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
-        <v>43723</v>
+        <v>45129</v>
       </c>
       <c r="B588" t="s">
         <v>8</v>
@@ -20328,7 +20328,7 @@
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
-        <v>44003</v>
+        <v>43503</v>
       </c>
       <c r="B589" t="s">
         <v>20</v>
@@ -20354,7 +20354,7 @@
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
-        <v>44146</v>
+        <v>44164</v>
       </c>
       <c r="B590" t="s">
         <v>39</v>
@@ -20380,7 +20380,7 @@
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
-        <v>44599</v>
+        <v>44807</v>
       </c>
       <c r="B591" t="s">
         <v>42</v>
@@ -20406,7 +20406,7 @@
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
-        <v>44413</v>
+        <v>44198</v>
       </c>
       <c r="B592" t="s">
         <v>39</v>
@@ -20432,7 +20432,7 @@
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
-        <v>45047</v>
+        <v>44393</v>
       </c>
       <c r="B593" t="s">
         <v>8</v>
@@ -20458,7 +20458,7 @@
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
-        <v>43773</v>
+        <v>43768</v>
       </c>
       <c r="B594" t="s">
         <v>8</v>
@@ -20484,7 +20484,7 @@
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
-        <v>45117</v>
+        <v>44737</v>
       </c>
       <c r="B595" t="s">
         <v>42</v>
@@ -20510,7 +20510,7 @@
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
-        <v>43517</v>
+        <v>44133</v>
       </c>
       <c r="B596" t="s">
         <v>8</v>
@@ -20536,7 +20536,7 @@
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
-        <v>43543</v>
+        <v>45061</v>
       </c>
       <c r="B597" t="s">
         <v>68</v>
@@ -20562,7 +20562,7 @@
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
-        <v>43561</v>
+        <v>44497</v>
       </c>
       <c r="B598" t="s">
         <v>20</v>
@@ -20588,7 +20588,7 @@
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
-        <v>44394</v>
+        <v>43763</v>
       </c>
       <c r="B599" t="s">
         <v>29</v>
@@ -20614,7 +20614,7 @@
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
-        <v>44050</v>
+        <v>44145</v>
       </c>
       <c r="B600" t="s">
         <v>8</v>
@@ -20640,7 +20640,7 @@
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
-        <v>43761</v>
+        <v>44737</v>
       </c>
       <c r="B601" t="s">
         <v>39</v>
@@ -20666,7 +20666,7 @@
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
-        <v>43531</v>
+        <v>43725</v>
       </c>
       <c r="B602" t="s">
         <v>8</v>
@@ -20689,7 +20689,7 @@
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
-        <v>44122</v>
+        <v>43723</v>
       </c>
       <c r="B603" t="s">
         <v>20</v>
@@ -20715,7 +20715,7 @@
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
-        <v>45179</v>
+        <v>44656</v>
       </c>
       <c r="B604" t="s">
         <v>45</v>
@@ -20741,7 +20741,7 @@
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
-        <v>44227</v>
+        <v>45071</v>
       </c>
       <c r="B605" t="s">
         <v>8</v>
@@ -20767,7 +20767,7 @@
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
-        <v>44069</v>
+        <v>44878</v>
       </c>
       <c r="B606" t="s">
         <v>45</v>
@@ -20793,7 +20793,7 @@
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
-        <v>43727</v>
+        <v>44830</v>
       </c>
       <c r="B607" t="s">
         <v>29</v>
@@ -20819,7 +20819,7 @@
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
-        <v>44798</v>
+        <v>43797</v>
       </c>
       <c r="B608" t="s">
         <v>8</v>
@@ -20845,7 +20845,7 @@
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
-        <v>43554</v>
+        <v>44546</v>
       </c>
       <c r="B609" t="s">
         <v>20</v>
@@ -20871,7 +20871,7 @@
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
-        <v>43695</v>
+        <v>44204</v>
       </c>
       <c r="B610" t="s">
         <v>45</v>
@@ -20897,7 +20897,7 @@
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
-        <v>43546</v>
+        <v>44510</v>
       </c>
       <c r="B611" t="s">
         <v>42</v>
@@ -20923,7 +20923,7 @@
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
-        <v>44067</v>
+        <v>43482</v>
       </c>
       <c r="B612" t="s">
         <v>39</v>
@@ -20949,7 +20949,7 @@
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
-        <v>44636</v>
+        <v>43509</v>
       </c>
       <c r="B613" t="s">
         <v>8</v>
@@ -20975,7 +20975,7 @@
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
-        <v>44438</v>
+        <v>43640</v>
       </c>
       <c r="B614" t="s">
         <v>42</v>
@@ -21001,7 +21001,7 @@
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
-        <v>43545</v>
+        <v>44389</v>
       </c>
       <c r="B615" t="s">
         <v>45</v>
@@ -21027,7 +21027,7 @@
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
-        <v>43703</v>
+        <v>44617</v>
       </c>
       <c r="B616" t="s">
         <v>42</v>
@@ -21053,7 +21053,7 @@
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
-        <v>43880</v>
+        <v>43980</v>
       </c>
       <c r="B617" t="s">
         <v>8</v>
@@ -21076,7 +21076,7 @@
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
-        <v>44609</v>
+        <v>43870</v>
       </c>
       <c r="B618" t="s">
         <v>8</v>
@@ -21102,7 +21102,7 @@
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
-        <v>44699</v>
+        <v>43880</v>
       </c>
       <c r="B619" t="s">
         <v>20</v>
@@ -21125,7 +21125,7 @@
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <v>44675</v>
+        <v>45049</v>
       </c>
       <c r="B620" t="s">
         <v>8</v>
@@ -21151,7 +21151,7 @@
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
-        <v>45052</v>
+        <v>45213</v>
       </c>
       <c r="B621" t="s">
         <v>42</v>
@@ -21177,7 +21177,7 @@
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
-        <v>44074</v>
+        <v>43487</v>
       </c>
       <c r="B622" t="s">
         <v>8</v>
@@ -21203,7 +21203,7 @@
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
-        <v>43843</v>
+        <v>44006</v>
       </c>
       <c r="B623" t="s">
         <v>20</v>
@@ -21226,7 +21226,7 @@
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
-        <v>44543</v>
+        <v>44052</v>
       </c>
       <c r="B624" t="s">
         <v>68</v>
@@ -21249,7 +21249,7 @@
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
-        <v>44706</v>
+        <v>44785</v>
       </c>
       <c r="B625" t="s">
         <v>45</v>
@@ -21272,7 +21272,7 @@
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
-        <v>43784</v>
+        <v>44038</v>
       </c>
       <c r="B626" t="s">
         <v>20</v>
@@ -21295,7 +21295,7 @@
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
-        <v>43627</v>
+        <v>43479</v>
       </c>
       <c r="B627" t="s">
         <v>39</v>
@@ -21318,7 +21318,7 @@
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
-        <v>43518</v>
+        <v>43692</v>
       </c>
       <c r="B628" t="s">
         <v>8</v>
@@ -21341,7 +21341,7 @@
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
-        <v>44100</v>
+        <v>44827</v>
       </c>
       <c r="B629" t="s">
         <v>20</v>
@@ -21364,7 +21364,7 @@
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
-        <v>44883</v>
+        <v>45037</v>
       </c>
       <c r="B630" t="s">
         <v>39</v>
@@ -21390,7 +21390,7 @@
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
-        <v>45117</v>
+        <v>43470</v>
       </c>
       <c r="B631" t="s">
         <v>8</v>
@@ -21416,7 +21416,7 @@
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
-        <v>44641</v>
+        <v>44526</v>
       </c>
       <c r="B632" t="s">
         <v>39</v>
@@ -21442,7 +21442,7 @@
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
-        <v>44084</v>
+        <v>44034</v>
       </c>
       <c r="B633" t="s">
         <v>45</v>
@@ -21468,7 +21468,7 @@
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
-        <v>44163</v>
+        <v>43573</v>
       </c>
       <c r="B634" t="s">
         <v>29</v>
@@ -21494,7 +21494,7 @@
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
-        <v>43768</v>
+        <v>44346</v>
       </c>
       <c r="B635" t="s">
         <v>42</v>
@@ -21520,7 +21520,7 @@
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
-        <v>44940</v>
+        <v>44895</v>
       </c>
       <c r="B636" t="s">
         <v>20</v>
@@ -21546,7 +21546,7 @@
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
-        <v>45171</v>
+        <v>44197</v>
       </c>
       <c r="B637" t="s">
         <v>15</v>
@@ -21569,7 +21569,7 @@
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
-        <v>44799</v>
+        <v>44466</v>
       </c>
       <c r="B638" t="s">
         <v>45</v>
@@ -21592,7 +21592,7 @@
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
-        <v>43590</v>
+        <v>44191</v>
       </c>
       <c r="B639" t="s">
         <v>42</v>
@@ -21618,7 +21618,7 @@
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
-        <v>44923</v>
+        <v>44080</v>
       </c>
       <c r="B640" t="s">
         <v>29</v>
@@ -21644,7 +21644,7 @@
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
-        <v>44886</v>
+        <v>44743</v>
       </c>
       <c r="B641" t="s">
         <v>68</v>
@@ -21670,7 +21670,7 @@
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="B642" t="s">
         <v>39</v>
@@ -21696,7 +21696,7 @@
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
-        <v>45089</v>
+        <v>44385</v>
       </c>
       <c r="B643" t="s">
         <v>8</v>
@@ -21722,7 +21722,7 @@
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
-        <v>43606</v>
+        <v>45025</v>
       </c>
       <c r="B644" t="s">
         <v>20</v>
@@ -21748,7 +21748,7 @@
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
-        <v>43649</v>
+        <v>43943</v>
       </c>
       <c r="B645" t="s">
         <v>29</v>
@@ -21774,7 +21774,7 @@
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
-        <v>44511</v>
+        <v>44258</v>
       </c>
       <c r="B646" t="s">
         <v>15</v>
@@ -21800,7 +21800,7 @@
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
-        <v>44094</v>
+        <v>43796</v>
       </c>
       <c r="B647" t="s">
         <v>68</v>
@@ -21826,7 +21826,7 @@
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
-        <v>43719</v>
+        <v>43656</v>
       </c>
       <c r="B648" t="s">
         <v>39</v>
@@ -21852,7 +21852,7 @@
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
-        <v>45084</v>
+        <v>44340</v>
       </c>
       <c r="B649" t="s">
         <v>68</v>
@@ -21878,7 +21878,7 @@
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
-        <v>44136</v>
+        <v>43682</v>
       </c>
       <c r="B650" t="s">
         <v>8</v>
@@ -21904,7 +21904,7 @@
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
-        <v>43994</v>
+        <v>43644</v>
       </c>
       <c r="B651" t="s">
         <v>45</v>
@@ -21930,7 +21930,7 @@
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
-        <v>45038</v>
+        <v>44576</v>
       </c>
       <c r="B652" t="s">
         <v>45</v>
@@ -21953,7 +21953,7 @@
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
-        <v>44922</v>
+        <v>44089</v>
       </c>
       <c r="B653" t="s">
         <v>20</v>
@@ -21976,7 +21976,7 @@
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
-        <v>44020</v>
+        <v>44234</v>
       </c>
       <c r="B654" t="s">
         <v>39</v>
@@ -21999,7 +21999,7 @@
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
-        <v>43754</v>
+        <v>44556</v>
       </c>
       <c r="B655" t="s">
         <v>45</v>
@@ -22025,7 +22025,7 @@
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
-        <v>43571</v>
+        <v>43964</v>
       </c>
       <c r="B656" t="s">
         <v>15</v>
@@ -22048,7 +22048,7 @@
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
-        <v>44657</v>
+        <v>44573</v>
       </c>
       <c r="B657" t="s">
         <v>68</v>
@@ -22074,7 +22074,7 @@
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
-        <v>45144</v>
+        <v>44999</v>
       </c>
       <c r="B658" t="s">
         <v>42</v>
@@ -22097,7 +22097,7 @@
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
-        <v>43576</v>
+        <v>44886</v>
       </c>
       <c r="B659" t="s">
         <v>20</v>
@@ -22123,7 +22123,7 @@
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
-        <v>44949</v>
+        <v>43811</v>
       </c>
       <c r="B660" t="s">
         <v>42</v>
@@ -22149,7 +22149,7 @@
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
-        <v>44100</v>
+        <v>43486</v>
       </c>
       <c r="B661" t="s">
         <v>45</v>
@@ -22175,7 +22175,7 @@
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
-        <v>44526</v>
+        <v>44061</v>
       </c>
       <c r="B662" t="s">
         <v>15</v>
@@ -22201,7 +22201,7 @@
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
-        <v>43784</v>
+        <v>43833</v>
       </c>
       <c r="B663" t="s">
         <v>20</v>
@@ -22227,7 +22227,7 @@
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
-        <v>43542</v>
+        <v>44312</v>
       </c>
       <c r="B664" t="s">
         <v>20</v>
@@ -22253,7 +22253,7 @@
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
-        <v>45142</v>
+        <v>44174</v>
       </c>
       <c r="B665" t="s">
         <v>39</v>
@@ -22279,7 +22279,7 @@
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
-        <v>44312</v>
+        <v>44283</v>
       </c>
       <c r="B666" t="s">
         <v>29</v>
@@ -22305,7 +22305,7 @@
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
-        <v>44438</v>
+        <v>43640</v>
       </c>
       <c r="B667" t="s">
         <v>45</v>
@@ -22331,7 +22331,7 @@
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
-        <v>44872</v>
+        <v>44193</v>
       </c>
       <c r="B668" t="s">
         <v>68</v>
@@ -22357,7 +22357,7 @@
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
-        <v>44376</v>
+        <v>44074</v>
       </c>
       <c r="B669" t="s">
         <v>20</v>
@@ -22383,7 +22383,7 @@
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
-        <v>43644</v>
+        <v>44544</v>
       </c>
       <c r="B670" t="s">
         <v>42</v>
@@ -22409,7 +22409,7 @@
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
-        <v>44657</v>
+        <v>44506</v>
       </c>
       <c r="B671" t="s">
         <v>45</v>
@@ -22435,7 +22435,7 @@
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
-        <v>44616</v>
+        <v>44771</v>
       </c>
       <c r="B672" t="s">
         <v>8</v>
@@ -22461,7 +22461,7 @@
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
-        <v>44468</v>
+        <v>43803</v>
       </c>
       <c r="B673" t="s">
         <v>8</v>
@@ -22484,7 +22484,7 @@
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
-        <v>44488</v>
+        <v>44929</v>
       </c>
       <c r="B674" t="s">
         <v>68</v>
@@ -22510,7 +22510,7 @@
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
-        <v>44658</v>
+        <v>44790</v>
       </c>
       <c r="B675" t="s">
         <v>15</v>
@@ -22536,7 +22536,7 @@
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
-        <v>44843</v>
+        <v>44226</v>
       </c>
       <c r="B676" t="s">
         <v>39</v>
@@ -22562,7 +22562,7 @@
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
-        <v>43712</v>
+        <v>44050</v>
       </c>
       <c r="B677" t="s">
         <v>15</v>
@@ -22588,7 +22588,7 @@
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
-        <v>45126</v>
+        <v>44865</v>
       </c>
       <c r="B678" t="s">
         <v>42</v>
@@ -22614,7 +22614,7 @@
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
-        <v>43679</v>
+        <v>44269</v>
       </c>
       <c r="B679" t="s">
         <v>15</v>
@@ -22640,7 +22640,7 @@
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
-        <v>43610</v>
+        <v>43960</v>
       </c>
       <c r="B680" t="s">
         <v>8</v>
@@ -22666,7 +22666,7 @@
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
-        <v>44051</v>
+        <v>44571</v>
       </c>
       <c r="B681" t="s">
         <v>29</v>
@@ -22692,7 +22692,7 @@
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
-        <v>44175</v>
+        <v>43655</v>
       </c>
       <c r="B682" t="s">
         <v>45</v>
@@ -22718,7 +22718,7 @@
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
-        <v>44293</v>
+        <v>44959</v>
       </c>
       <c r="B683" t="s">
         <v>45</v>
@@ -22744,7 +22744,7 @@
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
-        <v>44865</v>
+        <v>44683</v>
       </c>
       <c r="B684" t="s">
         <v>42</v>
@@ -22770,7 +22770,7 @@
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
-        <v>44770</v>
+        <v>45156</v>
       </c>
       <c r="B685" t="s">
         <v>15</v>
@@ -22796,7 +22796,7 @@
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
-        <v>44359</v>
+        <v>43890</v>
       </c>
       <c r="B686" t="s">
         <v>68</v>
@@ -22822,7 +22822,7 @@
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
-        <v>45064</v>
+        <v>44087</v>
       </c>
       <c r="B687" t="s">
         <v>15</v>
@@ -22845,7 +22845,7 @@
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
-        <v>45068</v>
+        <v>44449</v>
       </c>
       <c r="B688" t="s">
         <v>68</v>
@@ -22871,7 +22871,7 @@
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
-        <v>45144</v>
+        <v>43536</v>
       </c>
       <c r="B689" t="s">
         <v>68</v>
@@ -22897,7 +22897,7 @@
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
-        <v>43502</v>
+        <v>43868</v>
       </c>
       <c r="B690" t="s">
         <v>42</v>
@@ -22923,7 +22923,7 @@
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
-        <v>44684</v>
+        <v>44441</v>
       </c>
       <c r="B691" t="s">
         <v>68</v>
@@ -22946,7 +22946,7 @@
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
-        <v>44460</v>
+        <v>44458</v>
       </c>
       <c r="B692" t="s">
         <v>8</v>
@@ -22972,7 +22972,7 @@
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
-        <v>43996</v>
+        <v>44148</v>
       </c>
       <c r="B693" t="s">
         <v>42</v>
@@ -22995,7 +22995,7 @@
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
-        <v>44567</v>
+        <v>43954</v>
       </c>
       <c r="B694" t="s">
         <v>39</v>
@@ -23021,7 +23021,7 @@
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
-        <v>45055</v>
+        <v>45016</v>
       </c>
       <c r="B695" t="s">
         <v>20</v>
@@ -23047,7 +23047,7 @@
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
-        <v>43687</v>
+        <v>43907</v>
       </c>
       <c r="B696" t="s">
         <v>20</v>
@@ -23073,7 +23073,7 @@
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
-        <v>44318</v>
+        <v>43651</v>
       </c>
       <c r="B697" t="s">
         <v>68</v>
@@ -23099,7 +23099,7 @@
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
-        <v>44283</v>
+        <v>43791</v>
       </c>
       <c r="B698" t="s">
         <v>42</v>
@@ -23125,7 +23125,7 @@
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
-        <v>44134</v>
+        <v>44572</v>
       </c>
       <c r="B699" t="s">
         <v>45</v>
@@ -23151,7 +23151,7 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
-        <v>43809</v>
+        <v>43796</v>
       </c>
       <c r="B700" t="s">
         <v>29</v>
